--- a/Results.xlsx
+++ b/Results.xlsx
@@ -13,8 +13,8 @@
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 (formatted)" r:id="rId6" sheetId="27"/>
-    <sheet name="Table 2 (formatted)" r:id="rId7" sheetId="28"/>
+    <sheet name="Table 1 (formatted)" r:id="rId6" sheetId="51"/>
+    <sheet name="Table 2 (formatted)" r:id="rId7" sheetId="52"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9521" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16788" uniqueCount="2353">
   <si>
     <t>246 (5.1%)</t>
   </si>
@@ -2981,6 +2981,4110 @@
   </si>
   <si>
     <t>3547.14 (90.602)</t>
+  </si>
+  <si>
+    <t>1240 (10%)</t>
+  </si>
+  <si>
+    <t>425 (11%)</t>
+  </si>
+  <si>
+    <t>68 (0%)</t>
+  </si>
+  <si>
+    <t>131 (1%)</t>
+  </si>
+  <si>
+    <t>703 (23%)</t>
+  </si>
+  <si>
+    <t>157 (11%)</t>
+  </si>
+  <si>
+    <t>40 (0%)</t>
+  </si>
+  <si>
+    <t>32 (12%)</t>
+  </si>
+  <si>
+    <t>372 (146%)</t>
+  </si>
+  <si>
+    <t>156 (40%)</t>
+  </si>
+  <si>
+    <t>31 (17%)</t>
+  </si>
+  <si>
+    <t>0 (2%)</t>
+  </si>
+  <si>
+    <t>53 (6%)</t>
+  </si>
+  <si>
+    <t>106 (6%)</t>
+  </si>
+  <si>
+    <t>44 (1%)</t>
+  </si>
+  <si>
+    <t>125 (7%)</t>
+  </si>
+  <si>
+    <t>776 (10%)</t>
+  </si>
+  <si>
+    <t>2157 (47%)</t>
+  </si>
+  <si>
+    <t>87 (3%)</t>
+  </si>
+  <si>
+    <t>22 (1%)</t>
+  </si>
+  <si>
+    <t>98 (1%)</t>
+  </si>
+  <si>
+    <t>471 (29%)</t>
+  </si>
+  <si>
+    <t>934 (40%)</t>
+  </si>
+  <si>
+    <t>79 (25%)</t>
+  </si>
+  <si>
+    <t>14 (6%)</t>
+  </si>
+  <si>
+    <t>59 (11%)</t>
+  </si>
+  <si>
+    <t>355 (76%)</t>
+  </si>
+  <si>
+    <t>852 (327%)</t>
+  </si>
+  <si>
+    <t>397 (16%)</t>
+  </si>
+  <si>
+    <t>787 (20%)</t>
+  </si>
+  <si>
+    <t>974 (13%)</t>
+  </si>
+  <si>
+    <t>965 (22%)</t>
+  </si>
+  <si>
+    <t>123 (3%)</t>
+  </si>
+  <si>
+    <t>275 (15%)</t>
+  </si>
+  <si>
+    <t>346 (12%)</t>
+  </si>
+  <si>
+    <t>827 (36%)</t>
+  </si>
+  <si>
+    <t>144 (59%)</t>
+  </si>
+  <si>
+    <t>281 (101%)</t>
+  </si>
+  <si>
+    <t>316 (119%)</t>
+  </si>
+  <si>
+    <t>580 (153%)</t>
+  </si>
+  <si>
+    <t>1872 (40%)</t>
+  </si>
+  <si>
+    <t>1335 (31%)</t>
+  </si>
+  <si>
+    <t>938 (45%)</t>
+  </si>
+  <si>
+    <t>672 (28%)</t>
+  </si>
+  <si>
+    <t>782 (226%)</t>
+  </si>
+  <si>
+    <t>578 (219%)</t>
+  </si>
+  <si>
+    <t>2337 (44%)</t>
+  </si>
+  <si>
+    <t>623 (20%)</t>
+  </si>
+  <si>
+    <t>65 (0%)</t>
+  </si>
+  <si>
+    <t>175 (7%)</t>
+  </si>
+  <si>
+    <t>1294 (66%)</t>
+  </si>
+  <si>
+    <t>192 (3%)</t>
+  </si>
+  <si>
+    <t>62 (3%)</t>
+  </si>
+  <si>
+    <t>60 (3%)</t>
+  </si>
+  <si>
+    <t>1042 (340%)</t>
+  </si>
+  <si>
+    <t>181 (60%)</t>
+  </si>
+  <si>
+    <t>58 (15%)</t>
+  </si>
+  <si>
+    <t>79 (29%)</t>
+  </si>
+  <si>
+    <t>368 (8%)</t>
+  </si>
+  <si>
+    <t>752 (20%)</t>
+  </si>
+  <si>
+    <t>1921 (43%)</t>
+  </si>
+  <si>
+    <t>236 (3%)</t>
+  </si>
+  <si>
+    <t>374 (12%)</t>
+  </si>
+  <si>
+    <t>915 (48%)</t>
+  </si>
+  <si>
+    <t>188 (63%)</t>
+  </si>
+  <si>
+    <t>334 (117%)</t>
+  </si>
+  <si>
+    <t>730 (250%)</t>
+  </si>
+  <si>
+    <t>1739 (39%)</t>
+  </si>
+  <si>
+    <t>28 (1%)</t>
+  </si>
+  <si>
+    <t>99 (4%)</t>
+  </si>
+  <si>
+    <t>31 (0%)</t>
+  </si>
+  <si>
+    <t>28 (0%)</t>
+  </si>
+  <si>
+    <t>861 (32%)</t>
+  </si>
+  <si>
+    <t>20 (0%)</t>
+  </si>
+  <si>
+    <t>42 (3%)</t>
+  </si>
+  <si>
+    <t>22 (0%)</t>
+  </si>
+  <si>
+    <t>0 (1%)</t>
+  </si>
+  <si>
+    <t>696 (259%)</t>
+  </si>
+  <si>
+    <t>9 (2%)</t>
+  </si>
+  <si>
+    <t>70 (11%)</t>
+  </si>
+  <si>
+    <t>12 (2%)</t>
+  </si>
+  <si>
+    <t>4 (0%)</t>
+  </si>
+  <si>
+    <t>129 (0%)</t>
+  </si>
+  <si>
+    <t>243 (5%)</t>
+  </si>
+  <si>
+    <t>2668 (66%)</t>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+  </si>
+  <si>
+    <t>108 (4%)</t>
+  </si>
+  <si>
+    <t>1403 (56%)</t>
+  </si>
+  <si>
+    <t>9 (3%)</t>
+  </si>
+  <si>
+    <t>132 (32%)</t>
+  </si>
+  <si>
+    <t>1110 (395%)</t>
+  </si>
+  <si>
+    <t>506 (11%)</t>
+  </si>
+  <si>
+    <t>1009 (7%)</t>
+  </si>
+  <si>
+    <t>1089 (8%)</t>
+  </si>
+  <si>
+    <t>603 (45%)</t>
+  </si>
+  <si>
+    <t>324 (2%)</t>
+  </si>
+  <si>
+    <t>397 (11%)</t>
+  </si>
+  <si>
+    <t>746 (25%)</t>
+  </si>
+  <si>
+    <t>145 (37%)</t>
+  </si>
+  <si>
+    <t>206 (81%)</t>
+  </si>
+  <si>
+    <t>120 (105%)</t>
+  </si>
+  <si>
+    <t>512 (139%)</t>
+  </si>
+  <si>
+    <t>521 (120%)</t>
+  </si>
+  <si>
+    <t>423 (13%)</t>
+  </si>
+  <si>
+    <t>703 (18%)</t>
+  </si>
+  <si>
+    <t>734 (12%)</t>
+  </si>
+  <si>
+    <t>155 (4%)</t>
+  </si>
+  <si>
+    <t>404 (15%)</t>
+  </si>
+  <si>
+    <t>374 (13%)</t>
+  </si>
+  <si>
+    <t>188 (53%)</t>
+  </si>
+  <si>
+    <t>379 (136%)</t>
+  </si>
+  <si>
+    <t>2 (2%)</t>
+  </si>
+  <si>
+    <t>219 (80%)</t>
+  </si>
+  <si>
+    <t>409 (10%)</t>
+  </si>
+  <si>
+    <t>1043 (29%)</t>
+  </si>
+  <si>
+    <t>1748 (33%)</t>
+  </si>
+  <si>
+    <t>208 (15%)</t>
+  </si>
+  <si>
+    <t>421 (26%)</t>
+  </si>
+  <si>
+    <t>973 (34%)</t>
+  </si>
+  <si>
+    <t>164 (78%)</t>
+  </si>
+  <si>
+    <t>425 (159%)</t>
+  </si>
+  <si>
+    <t>762 (206%)</t>
+  </si>
+  <si>
+    <t>2993 (65%)</t>
+  </si>
+  <si>
+    <t>208 (7%)</t>
+  </si>
+  <si>
+    <t>1481 (70%)</t>
+  </si>
+  <si>
+    <t>126 (5%)</t>
+  </si>
+  <si>
+    <t>1269 (399%)</t>
+  </si>
+  <si>
+    <t>88 (44%)</t>
+  </si>
+  <si>
+    <t>3045 (67%)</t>
+  </si>
+  <si>
+    <t>57 (0%)</t>
+  </si>
+  <si>
+    <t>1508 (71%)</t>
+  </si>
+  <si>
+    <t>48 (0%)</t>
+  </si>
+  <si>
+    <t>1282 (412%)</t>
+  </si>
+  <si>
+    <t>25 (12%)</t>
+  </si>
+  <si>
+    <t>3051 (65%)</t>
+  </si>
+  <si>
+    <t>52 (3%)</t>
+  </si>
+  <si>
+    <t>1531 (70%)</t>
+  </si>
+  <si>
+    <t>27 (2%)</t>
+  </si>
+  <si>
+    <t>1296 (411%)</t>
+  </si>
+  <si>
+    <t>13 (12%)</t>
+  </si>
+  <si>
+    <t>113327 (69%)</t>
+  </si>
+  <si>
+    <t>24207 (14.7%)</t>
+  </si>
+  <si>
+    <t>11485 (7%)</t>
+  </si>
+  <si>
+    <t>15331 (9.3%)</t>
+  </si>
+  <si>
+    <t>2092 (67.6%)</t>
+  </si>
+  <si>
+    <t>688 (22.2%)</t>
+  </si>
+  <si>
+    <t>127 (4.1%)</t>
+  </si>
+  <si>
+    <t>188 (6.1%)</t>
+  </si>
+  <si>
+    <t>86417 (52.6%)</t>
+  </si>
+  <si>
+    <t>21288 (13%)</t>
+  </si>
+  <si>
+    <t>25942 (15.8%)</t>
+  </si>
+  <si>
+    <t>20738 (12.6%)</t>
+  </si>
+  <si>
+    <t>9964 (6.1%)</t>
+  </si>
+  <si>
+    <t>125 (4%)</t>
+  </si>
+  <si>
+    <t>33 (1.1%)</t>
+  </si>
+  <si>
+    <t>123 (4%)</t>
+  </si>
+  <si>
+    <t>762 (24.6%)</t>
+  </si>
+  <si>
+    <t>2052 (66.3%)</t>
+  </si>
+  <si>
+    <t>36823 (23.1%)</t>
+  </si>
+  <si>
+    <t>37366 (23.5%)</t>
+  </si>
+  <si>
+    <t>38247 (24%)</t>
+  </si>
+  <si>
+    <t>46756 (29.4%)</t>
+  </si>
+  <si>
+    <t>314 (10.5%)</t>
+  </si>
+  <si>
+    <t>687 (22.9%)</t>
+  </si>
+  <si>
+    <t>846 (28.3%)</t>
+  </si>
+  <si>
+    <t>1146 (38.3%)</t>
+  </si>
+  <si>
+    <t>109437 (66.6%)</t>
+  </si>
+  <si>
+    <t>54903 (33.4%)</t>
+  </si>
+  <si>
+    <t>1804 (58.3%)</t>
+  </si>
+  <si>
+    <t>1291 (41.7%)</t>
+  </si>
+  <si>
+    <t>56429 (34.4%)</t>
+  </si>
+  <si>
+    <t>90350 (55.1%)</t>
+  </si>
+  <si>
+    <t>10483 (6.4%)</t>
+  </si>
+  <si>
+    <t>6598 (4%)</t>
+  </si>
+  <si>
+    <t>2319 (75.1%)</t>
+  </si>
+  <si>
+    <t>557 (18%)</t>
+  </si>
+  <si>
+    <t>98 (3.2%)</t>
+  </si>
+  <si>
+    <t>115 (3.7%)</t>
+  </si>
+  <si>
+    <t>16728 (10.2%)</t>
+  </si>
+  <si>
+    <t>39698 (24.2%)</t>
+  </si>
+  <si>
+    <t>107923 (65.7%)</t>
+  </si>
+  <si>
+    <t>540 (17.5%)</t>
+  </si>
+  <si>
+    <t>776 (25.1%)</t>
+  </si>
+  <si>
+    <t>1779 (57.5%)</t>
+  </si>
+  <si>
+    <t>38586 (23.5%)</t>
+  </si>
+  <si>
+    <t>125764 (76.5%)</t>
+  </si>
+  <si>
+    <t>326 (10.5%)</t>
+  </si>
+  <si>
+    <t>2769 (89.5%)</t>
+  </si>
+  <si>
+    <t>47947 (29.2%)</t>
+  </si>
+  <si>
+    <t>28150 (17.1%)</t>
+  </si>
+  <si>
+    <t>69015 (42%)</t>
+  </si>
+  <si>
+    <t>19238 (11.7%)</t>
+  </si>
+  <si>
+    <t>703 (22.7%)</t>
+  </si>
+  <si>
+    <t>892 (28.8%)</t>
+  </si>
+  <si>
+    <t>1167 (37.7%)</t>
+  </si>
+  <si>
+    <t>333 (10.8%)</t>
+  </si>
+  <si>
+    <t>77841 (47.4%)</t>
+  </si>
+  <si>
+    <t>26351 (16%)</t>
+  </si>
+  <si>
+    <t>60157 (36.6%)</t>
+  </si>
+  <si>
+    <t>617 (19.9%)</t>
+  </si>
+  <si>
+    <t>1223 (39.5%)</t>
+  </si>
+  <si>
+    <t>1256 (40.6%)</t>
+  </si>
+  <si>
+    <t>98265 (63.9%)</t>
+  </si>
+  <si>
+    <t>28847 (18.8%)</t>
+  </si>
+  <si>
+    <t>26627 (17.3%)</t>
+  </si>
+  <si>
+    <t>1549 (53.9%)</t>
+  </si>
+  <si>
+    <t>833 (29%)</t>
+  </si>
+  <si>
+    <t>493 (17.1%)</t>
+  </si>
+  <si>
+    <t>7247 (4.4%)</t>
+  </si>
+  <si>
+    <t>15973 (9.7%)</t>
+  </si>
+  <si>
+    <t>140639 (85.8%)</t>
+  </si>
+  <si>
+    <t>363 (11.8%)</t>
+  </si>
+  <si>
+    <t>974 (31.6%)</t>
+  </si>
+  <si>
+    <t>1740 (56.6%)</t>
+  </si>
+  <si>
+    <t>162510 (98.9%)</t>
+  </si>
+  <si>
+    <t>1785 (1.1%)</t>
+  </si>
+  <si>
+    <t>2874 (93%)</t>
+  </si>
+  <si>
+    <t>216 (7%)</t>
+  </si>
+  <si>
+    <t>163197 (99.3%)</t>
+  </si>
+  <si>
+    <t>1115 (0.7%)</t>
+  </si>
+  <si>
+    <t>2964 (95.9%)</t>
+  </si>
+  <si>
+    <t>163664 (99.6%)</t>
+  </si>
+  <si>
+    <t>670 (0.4%)</t>
+  </si>
+  <si>
+    <t>3005 (97.1%)</t>
+  </si>
+  <si>
+    <t>89 (2.9%)</t>
+  </si>
+  <si>
+    <t>3.74 (0.025)</t>
+  </si>
+  <si>
+    <t>8.12 (0.304)</t>
+  </si>
+  <si>
+    <t>12611.792 (78.057)</t>
+  </si>
+  <si>
+    <t>22121.09 (849.023)</t>
+  </si>
+  <si>
+    <t>10.235 (0.017)</t>
+  </si>
+  <si>
+    <t>1.303 (0.072)</t>
+  </si>
+  <si>
+    <t>8.219 (0.027)</t>
+  </si>
+  <si>
+    <t>13.59 (0.246)</t>
+  </si>
+  <si>
+    <t>4043.937 (10.605)</t>
+  </si>
+  <si>
+    <t>3111.491 (75.35)</t>
+  </si>
+  <si>
+    <t>1023 (66%)</t>
+  </si>
+  <si>
+    <t>363 (23.4%)</t>
+  </si>
+  <si>
+    <t>53 (3.4%)</t>
+  </si>
+  <si>
+    <t>111 (7.1%)</t>
+  </si>
+  <si>
+    <t>638 (76.5%)</t>
+  </si>
+  <si>
+    <t>135 (16.2%)</t>
+  </si>
+  <si>
+    <t>33 (4%)</t>
+  </si>
+  <si>
+    <t>27 (3.2%)</t>
+  </si>
+  <si>
+    <t>281 (57%)</t>
+  </si>
+  <si>
+    <t>144 (29.2%)</t>
+  </si>
+  <si>
+    <t>26 (5.2%)</t>
+  </si>
+  <si>
+    <t>42 (8.6%)</t>
+  </si>
+  <si>
+    <t>41 (2.6%)</t>
+  </si>
+  <si>
+    <t>16 (1%)</t>
+  </si>
+  <si>
+    <t>63 (4%)</t>
+  </si>
+  <si>
+    <t>364 (23.5%)</t>
+  </si>
+  <si>
+    <t>1067 (68.8%)</t>
+  </si>
+  <si>
+    <t>46 (5.5%)</t>
+  </si>
+  <si>
+    <t>45 (5.4%)</t>
+  </si>
+  <si>
+    <t>238 (28.5%)</t>
+  </si>
+  <si>
+    <t>495 (59.4%)</t>
+  </si>
+  <si>
+    <t>28 (5.6%)</t>
+  </si>
+  <si>
+    <t>2 (0.3%)</t>
+  </si>
+  <si>
+    <t>12 (2.4%)</t>
+  </si>
+  <si>
+    <t>122 (24.9%)</t>
+  </si>
+  <si>
+    <t>329 (66.8%)</t>
+  </si>
+  <si>
+    <t>184 (12.2%)</t>
+  </si>
+  <si>
+    <t>421 (27.9%)</t>
+  </si>
+  <si>
+    <t>489 (32.3%)</t>
+  </si>
+  <si>
+    <t>417 (27.6%)</t>
+  </si>
+  <si>
+    <t>72 (9%)</t>
+  </si>
+  <si>
+    <t>130 (16.1%)</t>
+  </si>
+  <si>
+    <t>185 (22.9%)</t>
+  </si>
+  <si>
+    <t>421 (52.1%)</t>
+  </si>
+  <si>
+    <t>40 (8.6%)</t>
+  </si>
+  <si>
+    <t>89 (19.1%)</t>
+  </si>
+  <si>
+    <t>110 (23.6%)</t>
+  </si>
+  <si>
+    <t>227 (48.7%)</t>
+  </si>
+  <si>
+    <t>897 (57.9%)</t>
+  </si>
+  <si>
+    <t>653 (42.1%)</t>
+  </si>
+  <si>
+    <t>501 (60.1%)</t>
+  </si>
+  <si>
+    <t>332 (39.9%)</t>
+  </si>
+  <si>
+    <t>301 (61.1%)</t>
+  </si>
+  <si>
+    <t>192 (38.9%)</t>
+  </si>
+  <si>
+    <t>1097 (71%)</t>
+  </si>
+  <si>
+    <t>354 (22.9%)</t>
+  </si>
+  <si>
+    <t>67 (4.3%)</t>
+  </si>
+  <si>
+    <t>676 (81.4%)</t>
+  </si>
+  <si>
+    <t>103 (12.4%)</t>
+  </si>
+  <si>
+    <t>33 (3.9%)</t>
+  </si>
+  <si>
+    <t>19 (2.3%)</t>
+  </si>
+  <si>
+    <t>373 (75.8%)</t>
+  </si>
+  <si>
+    <t>76 (15.4%)</t>
+  </si>
+  <si>
+    <t>22 (4.5%)</t>
+  </si>
+  <si>
+    <t>21 (4.2%)</t>
+  </si>
+  <si>
+    <t>243 (15.7%)</t>
+  </si>
+  <si>
+    <t>408 (26.3%)</t>
+  </si>
+  <si>
+    <t>899 (58%)</t>
+  </si>
+  <si>
+    <t>161 (19.4%)</t>
+  </si>
+  <si>
+    <t>182 (21.8%)</t>
+  </si>
+  <si>
+    <t>490 (58.8%)</t>
+  </si>
+  <si>
+    <t>106 (21.6%)</t>
+  </si>
+  <si>
+    <t>123 (25%)</t>
+  </si>
+  <si>
+    <t>263 (53.4%)</t>
+  </si>
+  <si>
+    <t>162 (10.4%)</t>
+  </si>
+  <si>
+    <t>1388 (89.6%)</t>
+  </si>
+  <si>
+    <t>69 (8.3%)</t>
+  </si>
+  <si>
+    <t>764 (91.7%)</t>
+  </si>
+  <si>
+    <t>75 (15.2%)</t>
+  </si>
+  <si>
+    <t>418 (84.8%)</t>
+  </si>
+  <si>
+    <t>326 (21.1%)</t>
+  </si>
+  <si>
+    <t>532 (34.4%)</t>
+  </si>
+  <si>
+    <t>498 (32.2%)</t>
+  </si>
+  <si>
+    <t>193 (12.4%)</t>
+  </si>
+  <si>
+    <t>207 (24.8%)</t>
+  </si>
+  <si>
+    <t>200 (24.1%)</t>
+  </si>
+  <si>
+    <t>400 (48%)</t>
+  </si>
+  <si>
+    <t>25 (3.1%)</t>
+  </si>
+  <si>
+    <t>120 (24.3%)</t>
+  </si>
+  <si>
+    <t>85 (17.3%)</t>
+  </si>
+  <si>
+    <t>209 (42.5%)</t>
+  </si>
+  <si>
+    <t>78 (15.9%)</t>
+  </si>
+  <si>
+    <t>298 (19.3%)</t>
+  </si>
+  <si>
+    <t>582 (37.6%)</t>
+  </si>
+  <si>
+    <t>669 (43.2%)</t>
+  </si>
+  <si>
+    <t>136 (16.4%)</t>
+  </si>
+  <si>
+    <t>342 (41%)</t>
+  </si>
+  <si>
+    <t>355 (42.6%)</t>
+  </si>
+  <si>
+    <t>130 (26.3%)</t>
+  </si>
+  <si>
+    <t>215 (43.6%)</t>
+  </si>
+  <si>
+    <t>148 (30.1%)</t>
+  </si>
+  <si>
+    <t>174 (11.3%)</t>
+  </si>
+  <si>
+    <t>533 (34.5%)</t>
+  </si>
+  <si>
+    <t>837 (54.2%)</t>
+  </si>
+  <si>
+    <t>90 (10.9%)</t>
+  </si>
+  <si>
+    <t>207 (25.1%)</t>
+  </si>
+  <si>
+    <t>528 (64%)</t>
+  </si>
+  <si>
+    <t>60 (12.2%)</t>
+  </si>
+  <si>
+    <t>158 (32.4%)</t>
+  </si>
+  <si>
+    <t>271 (55.4%)</t>
+  </si>
+  <si>
+    <t>1450 (93.8%)</t>
+  </si>
+  <si>
+    <t>97 (6.2%)</t>
+  </si>
+  <si>
+    <t>768 (92.3%)</t>
+  </si>
+  <si>
+    <t>64 (7.7%)</t>
+  </si>
+  <si>
+    <t>459 (93.5%)</t>
+  </si>
+  <si>
+    <t>32 (6.5%)</t>
+  </si>
+  <si>
+    <t>1494 (96.5%)</t>
+  </si>
+  <si>
+    <t>54 (3.5%)</t>
+  </si>
+  <si>
+    <t>790 (94.9%)</t>
+  </si>
+  <si>
+    <t>42 (5.1%)</t>
+  </si>
+  <si>
+    <t>471 (95.8%)</t>
+  </si>
+  <si>
+    <t>20 (4.2%)</t>
+  </si>
+  <si>
+    <t>1505 (97.2%)</t>
+  </si>
+  <si>
+    <t>43 (2.8%)</t>
+  </si>
+  <si>
+    <t>811 (97.3%)</t>
+  </si>
+  <si>
+    <t>22 (2.7%)</t>
+  </si>
+  <si>
+    <t>481 (97.6%)</t>
+  </si>
+  <si>
+    <t>9.107 (0.733)</t>
+  </si>
+  <si>
+    <t>7.346 (0.588)</t>
+  </si>
+  <si>
+    <t>7.717 (0.404)</t>
+  </si>
+  <si>
+    <t>25260.65 (2070.769)</t>
+  </si>
+  <si>
+    <t>20368.695 (1817.436)</t>
+  </si>
+  <si>
+    <t>20738.012 (1101.377)</t>
+  </si>
+  <si>
+    <t>1.648 (0.157)</t>
+  </si>
+  <si>
+    <t>1.379 (0.2)</t>
+  </si>
+  <si>
+    <t>1.085 (0.086)</t>
+  </si>
+  <si>
+    <t>12.968 (0.555)</t>
+  </si>
+  <si>
+    <t>13.789 (0.638)</t>
+  </si>
+  <si>
+    <t>13.614 (0.307)</t>
+  </si>
+  <si>
+    <t>3189.576 (171.207)</t>
+  </si>
+  <si>
+    <t>3056.469 (152.866)</t>
+  </si>
+  <si>
+    <t>3049.977 (98.056)</t>
+  </si>
+  <si>
+    <t>105772 (68.8%)</t>
+  </si>
+  <si>
+    <t>22679 (14.8%)</t>
+  </si>
+  <si>
+    <t>10761 (7%)</t>
+  </si>
+  <si>
+    <t>14528 (9.4%)</t>
+  </si>
+  <si>
+    <t>1942 (67.5%)</t>
+  </si>
+  <si>
+    <t>642 (22.3%)</t>
+  </si>
+  <si>
+    <t>112 (3.9%)</t>
+  </si>
+  <si>
+    <t>180 (6.2%)</t>
+  </si>
+  <si>
+    <t>81600 (53.1%)</t>
+  </si>
+  <si>
+    <t>19888 (12.9%)</t>
+  </si>
+  <si>
+    <t>24059 (15.6%)</t>
+  </si>
+  <si>
+    <t>19083 (12.4%)</t>
+  </si>
+  <si>
+    <t>9111 (5.9%)</t>
+  </si>
+  <si>
+    <t>114 (4%)</t>
+  </si>
+  <si>
+    <t>27 (0.9%)</t>
+  </si>
+  <si>
+    <t>120 (4.2%)</t>
+  </si>
+  <si>
+    <t>724 (25.2%)</t>
+  </si>
+  <si>
+    <t>1891 (65.8%)</t>
+  </si>
+  <si>
+    <t>34555 (23.1%)</t>
+  </si>
+  <si>
+    <t>35196 (23.5%)</t>
+  </si>
+  <si>
+    <t>35869 (24%)</t>
+  </si>
+  <si>
+    <t>43944 (29.4%)</t>
+  </si>
+  <si>
+    <t>297 (10.6%)</t>
+  </si>
+  <si>
+    <t>641 (23%)</t>
+  </si>
+  <si>
+    <t>784 (28.1%)</t>
+  </si>
+  <si>
+    <t>1065 (38.2%)</t>
+  </si>
+  <si>
+    <t>102476 (66.7%)</t>
+  </si>
+  <si>
+    <t>51254 (33.3%)</t>
+  </si>
+  <si>
+    <t>1698 (59.1%)</t>
+  </si>
+  <si>
+    <t>1177 (40.9%)</t>
+  </si>
+  <si>
+    <t>52311 (34.1%)</t>
+  </si>
+  <si>
+    <t>85540 (55.8%)</t>
+  </si>
+  <si>
+    <t>9411 (6.1%)</t>
+  </si>
+  <si>
+    <t>6024 (3.9%)</t>
+  </si>
+  <si>
+    <t>2147 (74.8%)</t>
+  </si>
+  <si>
+    <t>533 (18.6%)</t>
+  </si>
+  <si>
+    <t>82 (2.9%)</t>
+  </si>
+  <si>
+    <t>107 (3.7%)</t>
+  </si>
+  <si>
+    <t>15787 (10.3%)</t>
+  </si>
+  <si>
+    <t>36645 (23.8%)</t>
+  </si>
+  <si>
+    <t>101309 (65.9%)</t>
+  </si>
+  <si>
+    <t>510 (17.7%)</t>
+  </si>
+  <si>
+    <t>712 (24.8%)</t>
+  </si>
+  <si>
+    <t>1652 (57.5%)</t>
+  </si>
+  <si>
+    <t>36640 (23.8%)</t>
+  </si>
+  <si>
+    <t>117100 (76.2%)</t>
+  </si>
+  <si>
+    <t>305 (10.6%)</t>
+  </si>
+  <si>
+    <t>2570 (89.4%)</t>
+  </si>
+  <si>
+    <t>43777 (28.5%)</t>
+  </si>
+  <si>
+    <t>26520 (17.2%)</t>
+  </si>
+  <si>
+    <t>65903 (42.9%)</t>
+  </si>
+  <si>
+    <t>17540 (11.4%)</t>
+  </si>
+  <si>
+    <t>653 (22.7%)</t>
+  </si>
+  <si>
+    <t>818 (28.5%)</t>
+  </si>
+  <si>
+    <t>1108 (38.5%)</t>
+  </si>
+  <si>
+    <t>296 (10.3%)</t>
+  </si>
+  <si>
+    <t>72987 (47.5%)</t>
+  </si>
+  <si>
+    <t>24356 (15.8%)</t>
+  </si>
+  <si>
+    <t>56397 (36.7%)</t>
+  </si>
+  <si>
+    <t>564 (19.6%)</t>
+  </si>
+  <si>
+    <t>1138 (39.6%)</t>
+  </si>
+  <si>
+    <t>1173 (40.8%)</t>
+  </si>
+  <si>
+    <t>6810 (4.4%)</t>
+  </si>
+  <si>
+    <t>14924 (9.7%)</t>
+  </si>
+  <si>
+    <t>131552 (85.8%)</t>
+  </si>
+  <si>
+    <t>324 (11.3%)</t>
+  </si>
+  <si>
+    <t>899 (31.4%)</t>
+  </si>
+  <si>
+    <t>1636 (57.2%)</t>
+  </si>
+  <si>
+    <t>152049 (98.9%)</t>
+  </si>
+  <si>
+    <t>1640 (1.1%)</t>
+  </si>
+  <si>
+    <t>2677 (93.3%)</t>
+  </si>
+  <si>
+    <t>193 (6.7%)</t>
+  </si>
+  <si>
+    <t>152685 (99.3%)</t>
+  </si>
+  <si>
+    <t>1019 (0.7%)</t>
+  </si>
+  <si>
+    <t>2755 (95.9%)</t>
+  </si>
+  <si>
+    <t>116 (4.1%)</t>
+  </si>
+  <si>
+    <t>153104 (99.6%)</t>
+  </si>
+  <si>
+    <t>621 (0.4%)</t>
+  </si>
+  <si>
+    <t>2797 (97.3%)</t>
+  </si>
+  <si>
+    <t>77 (2.7%)</t>
+  </si>
+  <si>
+    <t>3.71 (0.026)</t>
+  </si>
+  <si>
+    <t>8.056 (0.321)</t>
+  </si>
+  <si>
+    <t>12517.127 (79.372)</t>
+  </si>
+  <si>
+    <t>21968.708 (898.242)</t>
+  </si>
+  <si>
+    <t>10.298 (0.018)</t>
+  </si>
+  <si>
+    <t>1.298 (0.074)</t>
+  </si>
+  <si>
+    <t>8.232 (0.028)</t>
+  </si>
+  <si>
+    <t>13.457 (0.255)</t>
+  </si>
+  <si>
+    <t>4038.003 (10.959)</t>
+  </si>
+  <si>
+    <t>3091.137 (76.85)</t>
+  </si>
+  <si>
+    <t>20368.695 (1817.437)</t>
+  </si>
+  <si>
+    <t>20738.012 (1101.378)</t>
+  </si>
+  <si>
+    <t>145827 (67.9%)</t>
+  </si>
+  <si>
+    <t>32207 (15%)</t>
+  </si>
+  <si>
+    <t>16538 (7.7%)</t>
+  </si>
+  <si>
+    <t>20245 (9.4%)</t>
+  </si>
+  <si>
+    <t>2964 (67.9%)</t>
+  </si>
+  <si>
+    <t>933 (21.4%)</t>
+  </si>
+  <si>
+    <t>218 (5%)</t>
+  </si>
+  <si>
+    <t>252 (5.8%)</t>
+  </si>
+  <si>
+    <t>183734 (50.8%)</t>
+  </si>
+  <si>
+    <t>48544 (13.4%)</t>
+  </si>
+  <si>
+    <t>59093 (16.3%)</t>
+  </si>
+  <si>
+    <t>47081 (13%)</t>
+  </si>
+  <si>
+    <t>23055 (6.4%)</t>
+  </si>
+  <si>
+    <t>304 (4.1%)</t>
+  </si>
+  <si>
+    <t>91 (1.2%)</t>
+  </si>
+  <si>
+    <t>328 (4.4%)</t>
+  </si>
+  <si>
+    <t>1850 (25%)</t>
+  </si>
+  <si>
+    <t>4832 (65.3%)</t>
+  </si>
+  <si>
+    <t>81184 (23%)</t>
+  </si>
+  <si>
+    <t>85378 (24.2%)</t>
+  </si>
+  <si>
+    <t>84987 (24%)</t>
+  </si>
+  <si>
+    <t>101849 (28.8%)</t>
+  </si>
+  <si>
+    <t>843 (11.7%)</t>
+  </si>
+  <si>
+    <t>1644 (22.8%)</t>
+  </si>
+  <si>
+    <t>1986 (27.5%)</t>
+  </si>
+  <si>
+    <t>2741 (38%)</t>
+  </si>
+  <si>
+    <t>233666 (65.8%)</t>
+  </si>
+  <si>
+    <t>121687 (34.2%)</t>
+  </si>
+  <si>
+    <t>4251 (57.4%)</t>
+  </si>
+  <si>
+    <t>3151 (42.6%)</t>
+  </si>
+  <si>
+    <t>135379 (37.6%)</t>
+  </si>
+  <si>
+    <t>186968 (51.9%)</t>
+  </si>
+  <si>
+    <t>19227 (5.3%)</t>
+  </si>
+  <si>
+    <t>18754 (5.2%)</t>
+  </si>
+  <si>
+    <t>5592 (75.7%)</t>
+  </si>
+  <si>
+    <t>1229 (16.6%)</t>
+  </si>
+  <si>
+    <t>223 (3%)</t>
+  </si>
+  <si>
+    <t>344 (4.7%)</t>
+  </si>
+  <si>
+    <t>33933 (9.8%)</t>
+  </si>
+  <si>
+    <t>82089 (23.6%)</t>
+  </si>
+  <si>
+    <t>231652 (66.6%)</t>
+  </si>
+  <si>
+    <t>945 (13.7%)</t>
+  </si>
+  <si>
+    <t>1667 (24.2%)</t>
+  </si>
+  <si>
+    <t>4276 (62.1%)</t>
+  </si>
+  <si>
+    <t>75595 (21.7%)</t>
+  </si>
+  <si>
+    <t>272079 (78.3%)</t>
+  </si>
+  <si>
+    <t>573 (8.3%)</t>
+  </si>
+  <si>
+    <t>6316 (91.7%)</t>
+  </si>
+  <si>
+    <t>64606 (17.9%)</t>
+  </si>
+  <si>
+    <t>77906 (21.6%)</t>
+  </si>
+  <si>
+    <t>127889 (35.4%)</t>
+  </si>
+  <si>
+    <t>91106 (25.2%)</t>
+  </si>
+  <si>
+    <t>1018 (13.8%)</t>
+  </si>
+  <si>
+    <t>2265 (30.6%)</t>
+  </si>
+  <si>
+    <t>2674 (36.1%)</t>
+  </si>
+  <si>
+    <t>1448 (19.6%)</t>
+  </si>
+  <si>
+    <t>114097 (48.3%)</t>
+  </si>
+  <si>
+    <t>44394 (18.8%)</t>
+  </si>
+  <si>
+    <t>77679 (32.9%)</t>
+  </si>
+  <si>
+    <t>838 (19.2%)</t>
+  </si>
+  <si>
+    <t>1841 (42.1%)</t>
+  </si>
+  <si>
+    <t>1697 (38.8%)</t>
+  </si>
+  <si>
+    <t>176778 (60.3%)</t>
+  </si>
+  <si>
+    <t>50467 (17.2%)</t>
+  </si>
+  <si>
+    <t>66051 (22.5%)</t>
+  </si>
+  <si>
+    <t>3076 (51.1%)</t>
+  </si>
+  <si>
+    <t>1596 (26.5%)</t>
+  </si>
+  <si>
+    <t>1349 (22.4%)</t>
+  </si>
+  <si>
+    <t>16544 (4.6%)</t>
+  </si>
+  <si>
+    <t>36313 (10.1%)</t>
+  </si>
+  <si>
+    <t>307612 (85.3%)</t>
+  </si>
+  <si>
+    <t>990 (13.4%)</t>
+  </si>
+  <si>
+    <t>2350 (31.9%)</t>
+  </si>
+  <si>
+    <t>4037 (54.7%)</t>
+  </si>
+  <si>
+    <t>357495 (98.9%)</t>
+  </si>
+  <si>
+    <t>3895 (1.1%)</t>
+  </si>
+  <si>
+    <t>6861 (92.8%)</t>
+  </si>
+  <si>
+    <t>531 (7.2%)</t>
+  </si>
+  <si>
+    <t>358430 (99.6%)</t>
+  </si>
+  <si>
+    <t>1500 (0.4%)</t>
+  </si>
+  <si>
+    <t>6986 (97.3%)</t>
+  </si>
+  <si>
+    <t>197 (2.7%)</t>
+  </si>
+  <si>
+    <t>359042 (99.7%)</t>
+  </si>
+  <si>
+    <t>905 (0.3%)</t>
+  </si>
+  <si>
+    <t>7063 (98.3%)</t>
+  </si>
+  <si>
+    <t>124 (1.7%)</t>
+  </si>
+  <si>
+    <t>3.82 (0.018)</t>
+  </si>
+  <si>
+    <t>8.117 (0.202)</t>
+  </si>
+  <si>
+    <t>14147.34 (64.785)</t>
+  </si>
+  <si>
+    <t>24667.94 (598.738)</t>
+  </si>
+  <si>
+    <t>10.061 (0.012)</t>
+  </si>
+  <si>
+    <t>1.351 (0.046)</t>
+  </si>
+  <si>
+    <t>8.307 (0.018)</t>
+  </si>
+  <si>
+    <t>13.776 (0.15)</t>
+  </si>
+  <si>
+    <t>4505.733 (8.25)</t>
+  </si>
+  <si>
+    <t>3601.934 (59.802)</t>
+  </si>
+  <si>
+    <t>1172 (0%)</t>
+  </si>
+  <si>
+    <t>408 (0%)</t>
+  </si>
+  <si>
+    <t>60 (0%)</t>
+  </si>
+  <si>
+    <t>130 (0%)</t>
+  </si>
+  <si>
+    <t>699 (0%)</t>
+  </si>
+  <si>
+    <t>156 (0%)</t>
+  </si>
+  <si>
+    <t>32 (0%)</t>
+  </si>
+  <si>
+    <t>368 (0%)</t>
+  </si>
+  <si>
+    <t>154 (0%)</t>
+  </si>
+  <si>
+    <t>29 (0%)</t>
+  </si>
+  <si>
+    <t>53 (0%)</t>
+  </si>
+  <si>
+    <t>98 (0%)</t>
+  </si>
+  <si>
+    <t>36 (0%)</t>
+  </si>
+  <si>
+    <t>119 (0%)</t>
+  </si>
+  <si>
+    <t>737 (0%)</t>
+  </si>
+  <si>
+    <t>2085 (0%)</t>
+  </si>
+  <si>
+    <t>87 (0%)</t>
+  </si>
+  <si>
+    <t>96 (0%)</t>
+  </si>
+  <si>
+    <t>463 (0%)</t>
+  </si>
+  <si>
+    <t>929 (0%)</t>
+  </si>
+  <si>
+    <t>77 (0%)</t>
+  </si>
+  <si>
+    <t>14 (0%)</t>
+  </si>
+  <si>
+    <t>349 (0%)</t>
+  </si>
+  <si>
+    <t>851 (0%)</t>
+  </si>
+  <si>
+    <t>394 (0%)</t>
+  </si>
+  <si>
+    <t>774 (0%)</t>
+  </si>
+  <si>
+    <t>927 (0%)</t>
+  </si>
+  <si>
+    <t>904 (0%)</t>
+  </si>
+  <si>
+    <t>123 (0%)</t>
+  </si>
+  <si>
+    <t>274 (0%)</t>
+  </si>
+  <si>
+    <t>344 (0%)</t>
+  </si>
+  <si>
+    <t>815 (0%)</t>
+  </si>
+  <si>
+    <t>144 (0%)</t>
+  </si>
+  <si>
+    <t>281 (0%)</t>
+  </si>
+  <si>
+    <t>314 (0%)</t>
+  </si>
+  <si>
+    <t>572 (0%)</t>
+  </si>
+  <si>
+    <t>1792 (0%)</t>
+  </si>
+  <si>
+    <t>1284 (0%)</t>
+  </si>
+  <si>
+    <t>665 (0%)</t>
+  </si>
+  <si>
+    <t>775 (0%)</t>
+  </si>
+  <si>
+    <t>574 (0%)</t>
+  </si>
+  <si>
+    <t>2235 (0%)</t>
+  </si>
+  <si>
+    <t>601 (0%)</t>
+  </si>
+  <si>
+    <t>62 (0%)</t>
+  </si>
+  <si>
+    <t>171 (0%)</t>
+  </si>
+  <si>
+    <t>1281 (0%)</t>
+  </si>
+  <si>
+    <t>192 (0%)</t>
+  </si>
+  <si>
+    <t>61 (0%)</t>
+  </si>
+  <si>
+    <t>1034 (0%)</t>
+  </si>
+  <si>
+    <t>179 (0%)</t>
+  </si>
+  <si>
+    <t>56 (0%)</t>
+  </si>
+  <si>
+    <t>79 (0%)</t>
+  </si>
+  <si>
+    <t>359 (0%)</t>
+  </si>
+  <si>
+    <t>1813 (0%)</t>
+  </si>
+  <si>
+    <t>234 (0%)</t>
+  </si>
+  <si>
+    <t>372 (0%)</t>
+  </si>
+  <si>
+    <t>903 (0%)</t>
+  </si>
+  <si>
+    <t>184 (0%)</t>
+  </si>
+  <si>
+    <t>332 (0%)</t>
+  </si>
+  <si>
+    <t>725 (0%)</t>
+  </si>
+  <si>
+    <t>243 (0%)</t>
+  </si>
+  <si>
+    <t>2667 (0%)</t>
+  </si>
+  <si>
+    <t>107 (0%)</t>
+  </si>
+  <si>
+    <t>1403 (0%)</t>
+  </si>
+  <si>
+    <t>132 (0%)</t>
+  </si>
+  <si>
+    <t>1108 (0%)</t>
+  </si>
+  <si>
+    <t>446 (0%)</t>
+  </si>
+  <si>
+    <t>984 (0%)</t>
+  </si>
+  <si>
+    <t>1061 (0%)</t>
+  </si>
+  <si>
+    <t>586 (0%)</t>
+  </si>
+  <si>
+    <t>317 (0%)</t>
+  </si>
+  <si>
+    <t>397 (0%)</t>
+  </si>
+  <si>
+    <t>145 (0%)</t>
+  </si>
+  <si>
+    <t>206 (0%)</t>
+  </si>
+  <si>
+    <t>120 (0%)</t>
+  </si>
+  <si>
+    <t>505 (0%)</t>
+  </si>
+  <si>
+    <t>517 (0%)</t>
+  </si>
+  <si>
+    <t>341 (0%)</t>
+  </si>
+  <si>
+    <t>703 (0%)</t>
+  </si>
+  <si>
+    <t>724 (0%)</t>
+  </si>
+  <si>
+    <t>151 (0%)</t>
+  </si>
+  <si>
+    <t>404 (0%)</t>
+  </si>
+  <si>
+    <t>373 (0%)</t>
+  </si>
+  <si>
+    <t>180 (0%)</t>
+  </si>
+  <si>
+    <t>379 (0%)</t>
+  </si>
+  <si>
+    <t>219 (0%)</t>
+  </si>
+  <si>
+    <t>1023 (0%)</t>
+  </si>
+  <si>
+    <t>1649 (0%)</t>
+  </si>
+  <si>
+    <t>419 (0%)</t>
+  </si>
+  <si>
+    <t>961 (0%)</t>
+  </si>
+  <si>
+    <t>164 (0%)</t>
+  </si>
+  <si>
+    <t>424 (0%)</t>
+  </si>
+  <si>
+    <t>755 (0%)</t>
+  </si>
+  <si>
+    <t>2865 (0%)</t>
+  </si>
+  <si>
+    <t>205 (0%)</t>
+  </si>
+  <si>
+    <t>1468 (0%)</t>
+  </si>
+  <si>
+    <t>125 (0%)</t>
+  </si>
+  <si>
+    <t>1258 (0%)</t>
+  </si>
+  <si>
+    <t>88 (0%)</t>
+  </si>
+  <si>
+    <t>2918 (0%)</t>
+  </si>
+  <si>
+    <t>1493 (0%)</t>
+  </si>
+  <si>
+    <t>1271 (0%)</t>
+  </si>
+  <si>
+    <t>25 (0%)</t>
+  </si>
+  <si>
+    <t>2924 (0%)</t>
+  </si>
+  <si>
+    <t>52 (0%)</t>
+  </si>
+  <si>
+    <t>1517 (0%)</t>
+  </si>
+  <si>
+    <t>1285 (0%)</t>
+  </si>
+  <si>
+    <t>13 (0%)</t>
+  </si>
+  <si>
+    <t>8.727 (0.472)</t>
+  </si>
+  <si>
+    <t>8.526 (0.43)</t>
+  </si>
+  <si>
+    <t>7.449 (0.263)</t>
+  </si>
+  <si>
+    <t>26220.283 (1463.391)</t>
+  </si>
+  <si>
+    <t>28007.122 (1533.667)</t>
+  </si>
+  <si>
+    <t>22697.647 (866.803)</t>
+  </si>
+  <si>
+    <t>1.709 (0.109)</t>
+  </si>
+  <si>
+    <t>1.585 (0.12)</t>
+  </si>
+  <si>
+    <t>1.172 (0.065)</t>
+  </si>
+  <si>
+    <t>13.182 (0.362)</t>
+  </si>
+  <si>
+    <t>13.452 (0.36)</t>
+  </si>
+  <si>
+    <t>13.744 (0.21)</t>
+  </si>
+  <si>
+    <t>3504.402 (128.197)</t>
+  </si>
+  <si>
+    <t>3855.231 (153.873)</t>
+  </si>
+  <si>
+    <t>3567.715 (92.835)</t>
+  </si>
+  <si>
+    <t>1172 (66.2%)</t>
+  </si>
+  <si>
+    <t>408 (23.1%)</t>
+  </si>
+  <si>
+    <t>60 (3.4%)</t>
+  </si>
+  <si>
+    <t>130 (7.3%)</t>
+  </si>
+  <si>
+    <t>699 (75.5%)</t>
+  </si>
+  <si>
+    <t>156 (16.8%)</t>
+  </si>
+  <si>
+    <t>368 (60.9%)</t>
+  </si>
+  <si>
+    <t>154 (25.4%)</t>
+  </si>
+  <si>
+    <t>29 (4.8%)</t>
+  </si>
+  <si>
+    <t>53 (8.8%)</t>
+  </si>
+  <si>
+    <t>36 (1.2%)</t>
+  </si>
+  <si>
+    <t>119 (3.9%)</t>
+  </si>
+  <si>
+    <t>737 (23.9%)</t>
+  </si>
+  <si>
+    <t>2085 (67.8%)</t>
+  </si>
+  <si>
+    <t>87 (5.5%)</t>
+  </si>
+  <si>
+    <t>96 (6%)</t>
+  </si>
+  <si>
+    <t>463 (29%)</t>
+  </si>
+  <si>
+    <t>929 (58.2%)</t>
+  </si>
+  <si>
+    <t>77 (5.7%)</t>
+  </si>
+  <si>
+    <t>57 (4.2%)</t>
+  </si>
+  <si>
+    <t>349 (25.9%)</t>
+  </si>
+  <si>
+    <t>851 (63.1%)</t>
+  </si>
+  <si>
+    <t>394 (13.1%)</t>
+  </si>
+  <si>
+    <t>774 (25.8%)</t>
+  </si>
+  <si>
+    <t>927 (30.9%)</t>
+  </si>
+  <si>
+    <t>904 (30.1%)</t>
+  </si>
+  <si>
+    <t>274 (17.6%)</t>
+  </si>
+  <si>
+    <t>344 (22.1%)</t>
+  </si>
+  <si>
+    <t>815 (52.4%)</t>
+  </si>
+  <si>
+    <t>144 (11%)</t>
+  </si>
+  <si>
+    <t>281 (21.4%)</t>
+  </si>
+  <si>
+    <t>314 (24%)</t>
+  </si>
+  <si>
+    <t>572 (43.6%)</t>
+  </si>
+  <si>
+    <t>1792 (58.3%)</t>
+  </si>
+  <si>
+    <t>1284 (41.7%)</t>
+  </si>
+  <si>
+    <t>929 (58.3%)</t>
+  </si>
+  <si>
+    <t>665 (41.7%)</t>
+  </si>
+  <si>
+    <t>775 (57.4%)</t>
+  </si>
+  <si>
+    <t>574 (42.6%)</t>
+  </si>
+  <si>
+    <t>2235 (72.8%)</t>
+  </si>
+  <si>
+    <t>601 (19.6%)</t>
+  </si>
+  <si>
+    <t>62 (2%)</t>
+  </si>
+  <si>
+    <t>171 (5.6%)</t>
+  </si>
+  <si>
+    <t>1281 (80.4%)</t>
+  </si>
+  <si>
+    <t>192 (12%)</t>
+  </si>
+  <si>
+    <t>61 (3.8%)</t>
+  </si>
+  <si>
+    <t>1034 (76.7%)</t>
+  </si>
+  <si>
+    <t>179 (13.3%)</t>
+  </si>
+  <si>
+    <t>56 (4.1%)</t>
+  </si>
+  <si>
+    <t>79 (5.9%)</t>
+  </si>
+  <si>
+    <t>359 (12.3%)</t>
+  </si>
+  <si>
+    <t>737 (25.3%)</t>
+  </si>
+  <si>
+    <t>1813 (62.3%)</t>
+  </si>
+  <si>
+    <t>234 (15.5%)</t>
+  </si>
+  <si>
+    <t>372 (24.6%)</t>
+  </si>
+  <si>
+    <t>903 (59.8%)</t>
+  </si>
+  <si>
+    <t>184 (14.8%)</t>
+  </si>
+  <si>
+    <t>332 (26.7%)</t>
+  </si>
+  <si>
+    <t>725 (58.4%)</t>
+  </si>
+  <si>
+    <t>243 (8.4%)</t>
+  </si>
+  <si>
+    <t>2667 (91.6%)</t>
+  </si>
+  <si>
+    <t>107 (7.1%)</t>
+  </si>
+  <si>
+    <t>1403 (92.9%)</t>
+  </si>
+  <si>
+    <t>1108 (89.4%)</t>
+  </si>
+  <si>
+    <t>446 (14.5%)</t>
+  </si>
+  <si>
+    <t>984 (32%)</t>
+  </si>
+  <si>
+    <t>1061 (34.5%)</t>
+  </si>
+  <si>
+    <t>586 (19%)</t>
+  </si>
+  <si>
+    <t>317 (19.9%)</t>
+  </si>
+  <si>
+    <t>397 (24.9%)</t>
+  </si>
+  <si>
+    <t>737 (46.2%)</t>
+  </si>
+  <si>
+    <t>145 (9.1%)</t>
+  </si>
+  <si>
+    <t>206 (15.3%)</t>
+  </si>
+  <si>
+    <t>120 (8.9%)</t>
+  </si>
+  <si>
+    <t>505 (37.5%)</t>
+  </si>
+  <si>
+    <t>517 (38.4%)</t>
+  </si>
+  <si>
+    <t>341 (19.3%)</t>
+  </si>
+  <si>
+    <t>703 (39.8%)</t>
+  </si>
+  <si>
+    <t>724 (41%)</t>
+  </si>
+  <si>
+    <t>151 (16.3%)</t>
+  </si>
+  <si>
+    <t>404 (43.5%)</t>
+  </si>
+  <si>
+    <t>373 (40.2%)</t>
+  </si>
+  <si>
+    <t>180 (23.1%)</t>
+  </si>
+  <si>
+    <t>379 (48.7%)</t>
+  </si>
+  <si>
+    <t>219 (28.1%)</t>
+  </si>
+  <si>
+    <t>397 (12.9%)</t>
+  </si>
+  <si>
+    <t>1023 (33.3%)</t>
+  </si>
+  <si>
+    <t>1649 (53.7%)</t>
+  </si>
+  <si>
+    <t>206 (13%)</t>
+  </si>
+  <si>
+    <t>419 (26.4%)</t>
+  </si>
+  <si>
+    <t>961 (60.6%)</t>
+  </si>
+  <si>
+    <t>424 (31.6%)</t>
+  </si>
+  <si>
+    <t>755 (56.2%)</t>
+  </si>
+  <si>
+    <t>2865 (93.3%)</t>
+  </si>
+  <si>
+    <t>205 (6.7%)</t>
+  </si>
+  <si>
+    <t>1468 (92.2%)</t>
+  </si>
+  <si>
+    <t>125 (7.8%)</t>
+  </si>
+  <si>
+    <t>1258 (93.5%)</t>
+  </si>
+  <si>
+    <t>2918 (98.1%)</t>
+  </si>
+  <si>
+    <t>57 (1.9%)</t>
+  </si>
+  <si>
+    <t>1493 (96.9%)</t>
+  </si>
+  <si>
+    <t>1271 (98.1%)</t>
+  </si>
+  <si>
+    <t>2924 (98.3%)</t>
+  </si>
+  <si>
+    <t>1517 (98.4%)</t>
+  </si>
+  <si>
+    <t>25 (1.6%)</t>
+  </si>
+  <si>
+    <t>1285 (99%)</t>
+  </si>
+  <si>
+    <t>24911.939 (569.028)</t>
+  </si>
+  <si>
+    <t>32531.121 (5807.142)</t>
+  </si>
+  <si>
+    <t>26523.284 (1474.163)</t>
+  </si>
+  <si>
+    <t>27831.129 (1524.98)</t>
+  </si>
+  <si>
+    <t>29201.915 (7166.048)</t>
+  </si>
+  <si>
+    <t>31190.101 (2346.423)</t>
+  </si>
+  <si>
+    <t>4426.052 (542.124)</t>
+  </si>
+  <si>
+    <t>3840.301 (152.966)</t>
+  </si>
+  <si>
+    <t>323235 (49.2%)</t>
+  </si>
+  <si>
+    <t>86456 (13.2%)</t>
+  </si>
+  <si>
+    <t>104706 (15.9%)</t>
+  </si>
+  <si>
+    <t>88035 (13.4%)</t>
+  </si>
+  <si>
+    <t>54329 (8.3%)</t>
+  </si>
+  <si>
+    <t>1209 (6.6%)</t>
+  </si>
+  <si>
+    <t>421 (2.3%)</t>
+  </si>
+  <si>
+    <t>988 (5.4%)</t>
+  </si>
+  <si>
+    <t>4832 (26.5%)</t>
+  </si>
+  <si>
+    <t>10797 (59.2%)</t>
+  </si>
+  <si>
+    <t>137214 (21.4%)</t>
+  </si>
+  <si>
+    <t>151240 (23.5%)</t>
+  </si>
+  <si>
+    <t>157833 (24.6%)</t>
+  </si>
+  <si>
+    <t>195921 (30.5%)</t>
+  </si>
+  <si>
+    <t>2003 (11.2%)</t>
+  </si>
+  <si>
+    <t>3908 (21.8%)</t>
+  </si>
+  <si>
+    <t>4849 (27.1%)</t>
+  </si>
+  <si>
+    <t>7131 (39.9%)</t>
+  </si>
+  <si>
+    <t>414531 (63.7%)</t>
+  </si>
+  <si>
+    <t>235827 (36.3%)</t>
+  </si>
+  <si>
+    <t>10319 (56.6%)</t>
+  </si>
+  <si>
+    <t>7923 (43.4%)</t>
+  </si>
+  <si>
+    <t>273405 (41.8%)</t>
+  </si>
+  <si>
+    <t>315187 (48.2%)</t>
+  </si>
+  <si>
+    <t>32419 (5%)</t>
+  </si>
+  <si>
+    <t>33132 (5.1%)</t>
+  </si>
+  <si>
+    <t>14140 (77.7%)</t>
+  </si>
+  <si>
+    <t>2734 (15%)</t>
+  </si>
+  <si>
+    <t>544 (3%)</t>
+  </si>
+  <si>
+    <t>784 (4.3%)</t>
+  </si>
+  <si>
+    <t>67147 (10.5%)</t>
+  </si>
+  <si>
+    <t>139333 (21.7%)</t>
+  </si>
+  <si>
+    <t>435133 (67.8%)</t>
+  </si>
+  <si>
+    <t>2302 (13%)</t>
+  </si>
+  <si>
+    <t>3630 (20.5%)</t>
+  </si>
+  <si>
+    <t>11772 (66.5%)</t>
+  </si>
+  <si>
+    <t>31889 (5%)</t>
+  </si>
+  <si>
+    <t>98347 (15.3%)</t>
+  </si>
+  <si>
+    <t>511377 (79.7%)</t>
+  </si>
+  <si>
+    <t>302 (1.7%)</t>
+  </si>
+  <si>
+    <t>852 (4.8%)</t>
+  </si>
+  <si>
+    <t>16549 (93.5%)</t>
+  </si>
+  <si>
+    <t>114638 (17.5%)</t>
+  </si>
+  <si>
+    <t>142178 (21.6%)</t>
+  </si>
+  <si>
+    <t>236550 (36%)</t>
+  </si>
+  <si>
+    <t>163396 (24.9%)</t>
+  </si>
+  <si>
+    <t>2636 (14.4%)</t>
+  </si>
+  <si>
+    <t>4879 (26.7%)</t>
+  </si>
+  <si>
+    <t>7125 (39%)</t>
+  </si>
+  <si>
+    <t>3606 (19.8%)</t>
+  </si>
+  <si>
+    <t>310798 (55.1%)</t>
+  </si>
+  <si>
+    <t>90226 (16%)</t>
+  </si>
+  <si>
+    <t>113509 (20.1%)</t>
+  </si>
+  <si>
+    <t>14185 (2.5%)</t>
+  </si>
+  <si>
+    <t>5945 (1.1%)</t>
+  </si>
+  <si>
+    <t>29610 (5.2%)</t>
+  </si>
+  <si>
+    <t>7544 (47.6%)</t>
+  </si>
+  <si>
+    <t>3968 (25%)</t>
+  </si>
+  <si>
+    <t>3063 (19.3%)</t>
+  </si>
+  <si>
+    <t>184 (1.2%)</t>
+  </si>
+  <si>
+    <t>213 (1.3%)</t>
+  </si>
+  <si>
+    <t>888 (5.6%)</t>
+  </si>
+  <si>
+    <t>51120 (7.8%)</t>
+  </si>
+  <si>
+    <t>63228 (9.6%)</t>
+  </si>
+  <si>
+    <t>541112 (82.6%)</t>
+  </si>
+  <si>
+    <t>4614 (25.3%)</t>
+  </si>
+  <si>
+    <t>4037 (22.2%)</t>
+  </si>
+  <si>
+    <t>9564 (52.5%)</t>
+  </si>
+  <si>
+    <t>649502 (98.9%)</t>
+  </si>
+  <si>
+    <t>6897 (1.1%)</t>
+  </si>
+  <si>
+    <t>17236 (94.7%)</t>
+  </si>
+  <si>
+    <t>958 (5.3%)</t>
+  </si>
+  <si>
+    <t>4.335 (0.015)</t>
+  </si>
+  <si>
+    <t>7.775 (0.125)</t>
+  </si>
+  <si>
+    <t>15588.805 (62.884)</t>
+  </si>
+  <si>
+    <t>24442.383 (427.729)</t>
+  </si>
+  <si>
+    <t>9.759 (0.009)</t>
+  </si>
+  <si>
+    <t>1.905 (0.034)</t>
+  </si>
+  <si>
+    <t>8.745 (0.016)</t>
+  </si>
+  <si>
+    <t>16.775 (0.132)</t>
+  </si>
+  <si>
+    <t>4512.42 (6.685)</t>
+  </si>
+  <si>
+    <t>3602.277 (33.523)</t>
+  </si>
+  <si>
+    <t>505 (6.7%)</t>
+  </si>
+  <si>
+    <t>176 (2.3%)</t>
+  </si>
+  <si>
+    <t>363 (4.8%)</t>
+  </si>
+  <si>
+    <t>1941 (25.7%)</t>
+  </si>
+  <si>
+    <t>4559 (60.4%)</t>
+  </si>
+  <si>
+    <t>269 (6.8%)</t>
+  </si>
+  <si>
+    <t>110 (2.8%)</t>
+  </si>
+  <si>
+    <t>283 (7.1%)</t>
+  </si>
+  <si>
+    <t>1200 (30.2%)</t>
+  </si>
+  <si>
+    <t>2106 (53.1%)</t>
+  </si>
+  <si>
+    <t>219 (7.2%)</t>
+  </si>
+  <si>
+    <t>59 (1.9%)</t>
+  </si>
+  <si>
+    <t>159 (5.2%)</t>
+  </si>
+  <si>
+    <t>823 (26.9%)</t>
+  </si>
+  <si>
+    <t>1802 (58.9%)</t>
+  </si>
+  <si>
+    <t>17 (9.5%)</t>
+  </si>
+  <si>
+    <t>3 (1.5%)</t>
+  </si>
+  <si>
+    <t>18 (9.8%)</t>
+  </si>
+  <si>
+    <t>38 (20.9%)</t>
+  </si>
+  <si>
+    <t>107 (58.3%)</t>
+  </si>
+  <si>
+    <t>22 (10.3%)</t>
+  </si>
+  <si>
+    <t>3 (1.3%)</t>
+  </si>
+  <si>
+    <t>11 (5.1%)</t>
+  </si>
+  <si>
+    <t>70 (32.8%)</t>
+  </si>
+  <si>
+    <t>107 (50.5%)</t>
+  </si>
+  <si>
+    <t>62 (7%)</t>
+  </si>
+  <si>
+    <t>23 (2.6%)</t>
+  </si>
+  <si>
+    <t>35 (4%)</t>
+  </si>
+  <si>
+    <t>192 (21.7%)</t>
+  </si>
+  <si>
+    <t>575 (64.8%)</t>
+  </si>
+  <si>
+    <t>917 (12.4%)</t>
+  </si>
+  <si>
+    <t>1764 (23.8%)</t>
+  </si>
+  <si>
+    <t>2285 (30.8%)</t>
+  </si>
+  <si>
+    <t>2456 (33.1%)</t>
+  </si>
+  <si>
+    <t>291 (7.5%)</t>
+  </si>
+  <si>
+    <t>627 (16%)</t>
+  </si>
+  <si>
+    <t>860 (22%)</t>
+  </si>
+  <si>
+    <t>2126 (54.5%)</t>
+  </si>
+  <si>
+    <t>313 (10.4%)</t>
+  </si>
+  <si>
+    <t>688 (22.9%)</t>
+  </si>
+  <si>
+    <t>711 (23.7%)</t>
+  </si>
+  <si>
+    <t>1295 (43.1%)</t>
+  </si>
+  <si>
+    <t>44 (24.3%)</t>
+  </si>
+  <si>
+    <t>52 (28.8%)</t>
+  </si>
+  <si>
+    <t>37 (20.5%)</t>
+  </si>
+  <si>
+    <t>48 (26.4%)</t>
+  </si>
+  <si>
+    <t>5 (2.9%)</t>
+  </si>
+  <si>
+    <t>35 (18.7%)</t>
+  </si>
+  <si>
+    <t>33 (17.7%)</t>
+  </si>
+  <si>
+    <t>114 (60.7%)</t>
+  </si>
+  <si>
+    <t>131 (15.1%)</t>
+  </si>
+  <si>
+    <t>210 (24.1%)</t>
+  </si>
+  <si>
+    <t>234 (27%)</t>
+  </si>
+  <si>
+    <t>294 (33.8%)</t>
+  </si>
+  <si>
+    <t>4294 (56.9%)</t>
+  </si>
+  <si>
+    <t>3250 (43.1%)</t>
+  </si>
+  <si>
+    <t>2298 (57.9%)</t>
+  </si>
+  <si>
+    <t>1669 (42.1%)</t>
+  </si>
+  <si>
+    <t>1719 (56.1%)</t>
+  </si>
+  <si>
+    <t>1343 (43.9%)</t>
+  </si>
+  <si>
+    <t>107 (57.9%)</t>
+  </si>
+  <si>
+    <t>77 (42.1%)</t>
+  </si>
+  <si>
+    <t>104 (49.1%)</t>
+  </si>
+  <si>
+    <t>108 (50.9%)</t>
+  </si>
+  <si>
+    <t>484 (54.6%)</t>
+  </si>
+  <si>
+    <t>403 (45.4%)</t>
+  </si>
+  <si>
+    <t>5564 (73.9%)</t>
+  </si>
+  <si>
+    <t>1425 (18.9%)</t>
+  </si>
+  <si>
+    <t>185 (2.5%)</t>
+  </si>
+  <si>
+    <t>351 (4.7%)</t>
+  </si>
+  <si>
+    <t>3292 (83.2%)</t>
+  </si>
+  <si>
+    <t>396 (10%)</t>
+  </si>
+  <si>
+    <t>127 (3.2%)</t>
+  </si>
+  <si>
+    <t>141 (3.6%)</t>
+  </si>
+  <si>
+    <t>2453 (80.1%)</t>
+  </si>
+  <si>
+    <t>333 (10.9%)</t>
+  </si>
+  <si>
+    <t>103 (3.4%)</t>
+  </si>
+  <si>
+    <t>172 (5.6%)</t>
+  </si>
+  <si>
+    <t>123 (66.8%)</t>
+  </si>
+  <si>
+    <t>46 (24.9%)</t>
+  </si>
+  <si>
+    <t>4 (2.2%)</t>
+  </si>
+  <si>
+    <t>11 (6.1%)</t>
+  </si>
+  <si>
+    <t>196 (92.1%)</t>
+  </si>
+  <si>
+    <t>5 (2.6%)</t>
+  </si>
+  <si>
+    <t>7 (3.4%)</t>
+  </si>
+  <si>
+    <t>4 (1.9%)</t>
+  </si>
+  <si>
+    <t>672 (75.7%)</t>
+  </si>
+  <si>
+    <t>135 (15.2%)</t>
+  </si>
+  <si>
+    <t>29 (3.3%)</t>
+  </si>
+  <si>
+    <t>868 (11.8%)</t>
+  </si>
+  <si>
+    <t>1556 (21.1%)</t>
+  </si>
+  <si>
+    <t>4954 (67.1%)</t>
+  </si>
+  <si>
+    <t>618 (15.9%)</t>
+  </si>
+  <si>
+    <t>826 (21.3%)</t>
+  </si>
+  <si>
+    <t>2437 (62.8%)</t>
+  </si>
+  <si>
+    <t>400 (13.5%)</t>
+  </si>
+  <si>
+    <t>561 (19%)</t>
+  </si>
+  <si>
+    <t>1994 (67.5%)</t>
+  </si>
+  <si>
+    <t>23 (12.4%)</t>
+  </si>
+  <si>
+    <t>34 (18.3%)</t>
+  </si>
+  <si>
+    <t>128 (69.2%)</t>
+  </si>
+  <si>
+    <t>18 (8.9%)</t>
+  </si>
+  <si>
+    <t>35 (17.6%)</t>
+  </si>
+  <si>
+    <t>148 (73.5%)</t>
+  </si>
+  <si>
+    <t>110 (12.6%)</t>
+  </si>
+  <si>
+    <t>203 (23.2%)</t>
+  </si>
+  <si>
+    <t>560 (64.1%)</t>
+  </si>
+  <si>
+    <t>196 (2.7%)</t>
+  </si>
+  <si>
+    <t>361 (4.9%)</t>
+  </si>
+  <si>
+    <t>6820 (92.4%)</t>
+  </si>
+  <si>
+    <t>20 (0.5%)</t>
+  </si>
+  <si>
+    <t>143 (3.7%)</t>
+  </si>
+  <si>
+    <t>3718 (95.8%)</t>
+  </si>
+  <si>
+    <t>17 (0.6%)</t>
+  </si>
+  <si>
+    <t>195 (6.6%)</t>
+  </si>
+  <si>
+    <t>2743 (92.8%)</t>
+  </si>
+  <si>
+    <t>10 (5.2%)</t>
+  </si>
+  <si>
+    <t>173 (94%)</t>
+  </si>
+  <si>
+    <t>13 (6.4%)</t>
+  </si>
+  <si>
+    <t>184 (91.1%)</t>
+  </si>
+  <si>
+    <t>5 (0.5%)</t>
+  </si>
+  <si>
+    <t>36 (4.1%)</t>
+  </si>
+  <si>
+    <t>832 (95.3%)</t>
+  </si>
+  <si>
+    <t>1147 (15.2%)</t>
+  </si>
+  <si>
+    <t>2261 (30%)</t>
+  </si>
+  <si>
+    <t>2831 (37.5%)</t>
+  </si>
+  <si>
+    <t>1305 (17.3%)</t>
+  </si>
+  <si>
+    <t>676 (17%)</t>
+  </si>
+  <si>
+    <t>1012 (25.5%)</t>
+  </si>
+  <si>
+    <t>1923 (48.5%)</t>
+  </si>
+  <si>
+    <t>357 (9%)</t>
+  </si>
+  <si>
+    <t>462 (15.1%)</t>
+  </si>
+  <si>
+    <t>316 (10.3%)</t>
+  </si>
+  <si>
+    <t>1084 (35.4%)</t>
+  </si>
+  <si>
+    <t>1201 (39.2%)</t>
+  </si>
+  <si>
+    <t>29 (15.9%)</t>
+  </si>
+  <si>
+    <t>27 (14.8%)</t>
+  </si>
+  <si>
+    <t>29 (15.8%)</t>
+  </si>
+  <si>
+    <t>98 (53.5%)</t>
+  </si>
+  <si>
+    <t>5 (2.1%)</t>
+  </si>
+  <si>
+    <t>46 (21.8%)</t>
+  </si>
+  <si>
+    <t>49 (22.8%)</t>
+  </si>
+  <si>
+    <t>113 (53.2%)</t>
+  </si>
+  <si>
+    <t>185 (20.8%)</t>
+  </si>
+  <si>
+    <t>181 (20.4%)</t>
+  </si>
+  <si>
+    <t>300 (33.7%)</t>
+  </si>
+  <si>
+    <t>223 (25.1%)</t>
+  </si>
+  <si>
+    <t>1872 (24.8%)</t>
+  </si>
+  <si>
+    <t>1710 (22.7%)</t>
+  </si>
+  <si>
+    <t>3954 (52.5%)</t>
+  </si>
+  <si>
+    <t>1015 (25.7%)</t>
+  </si>
+  <si>
+    <t>756 (19.1%)</t>
+  </si>
+  <si>
+    <t>2187 (55.2%)</t>
+  </si>
+  <si>
+    <t>774 (25.3%)</t>
+  </si>
+  <si>
+    <t>667 (21.8%)</t>
+  </si>
+  <si>
+    <t>1614 (52.8%)</t>
+  </si>
+  <si>
+    <t>43 (23.2%)</t>
+  </si>
+  <si>
+    <t>45 (24.3%)</t>
+  </si>
+  <si>
+    <t>97 (52.5%)</t>
+  </si>
+  <si>
+    <t>64 (30.3%)</t>
+  </si>
+  <si>
+    <t>38 (17.8%)</t>
+  </si>
+  <si>
+    <t>110 (52%)</t>
+  </si>
+  <si>
+    <t>251 (28.3%)</t>
+  </si>
+  <si>
+    <t>215 (24.2%)</t>
+  </si>
+  <si>
+    <t>421 (47.5%)</t>
+  </si>
+  <si>
+    <t>7174 (95.4%)</t>
+  </si>
+  <si>
+    <t>349 (4.6%)</t>
+  </si>
+  <si>
+    <t>3750 (94.8%)</t>
+  </si>
+  <si>
+    <t>205 (5.2%)</t>
+  </si>
+  <si>
+    <t>2908 (95.4%)</t>
+  </si>
+  <si>
+    <t>140 (4.6%)</t>
+  </si>
+  <si>
+    <t>175 (95.6%)</t>
+  </si>
+  <si>
+    <t>8 (4.4%)</t>
+  </si>
+  <si>
+    <t>204 (95.8%)</t>
+  </si>
+  <si>
+    <t>9 (4.2%)</t>
+  </si>
+  <si>
+    <t>818 (92.4%)</t>
+  </si>
+  <si>
+    <t>67 (7.6%)</t>
+  </si>
+  <si>
+    <t>9.298 (1.895)</t>
+  </si>
+  <si>
+    <t>8.206 (0.264)</t>
+  </si>
+  <si>
+    <t>8.312 (0.319)</t>
+  </si>
+  <si>
+    <t>9.537 (1.316)</t>
+  </si>
+  <si>
+    <t>9.093 (0.529)</t>
+  </si>
+  <si>
+    <t>6.905 (0.162)</t>
+  </si>
+  <si>
+    <t>32455.695 (5225.142)</t>
+  </si>
+  <si>
+    <t>24854.663 (886.032)</t>
+  </si>
+  <si>
+    <t>28001.799 (1233.568)</t>
+  </si>
+  <si>
+    <t>26030.377 (4478.443)</t>
+  </si>
+  <si>
+    <t>29737.085 (2305.281)</t>
+  </si>
+  <si>
+    <t>21872.513 (596.046)</t>
+  </si>
+  <si>
+    <t>2.451 (0.39)</t>
+  </si>
+  <si>
+    <t>2.149 (0.075)</t>
+  </si>
+  <si>
+    <t>1.948 (0.085)</t>
+  </si>
+  <si>
+    <t>2.318 (0.36)</t>
+  </si>
+  <si>
+    <t>1.852 (0.157)</t>
+  </si>
+  <si>
+    <t>1.866 (0.053)</t>
+  </si>
+  <si>
+    <t>15.26 (1.236)</t>
+  </si>
+  <si>
+    <t>17.004 (0.306)</t>
+  </si>
+  <si>
+    <t>16.606 (0.324)</t>
+  </si>
+  <si>
+    <t>15.954 (1.091)</t>
+  </si>
+  <si>
+    <t>17.807 (0.594)</t>
+  </si>
+  <si>
+    <t>16.611 (0.201)</t>
+  </si>
+  <si>
+    <t>4117.515 (263.595)</t>
+  </si>
+  <si>
+    <t>3493.586 (71.511)</t>
+  </si>
+  <si>
+    <t>3860.843 (83.911)</t>
+  </si>
+  <si>
+    <t>3494.898 (388.33)</t>
+  </si>
+  <si>
+    <t>3830.645 (176.821)</t>
+  </si>
+  <si>
+    <t>3520.589 (50.593)</t>
+  </si>
+  <si>
+    <t>323596 (49%)</t>
+  </si>
+  <si>
+    <t>86606 (13.1%)</t>
+  </si>
+  <si>
+    <t>104998 (15.9%)</t>
+  </si>
+  <si>
+    <t>89181 (13.5%)</t>
+  </si>
+  <si>
+    <t>56100 (8.5%)</t>
+  </si>
+  <si>
+    <t>848 (5.8%)</t>
+  </si>
+  <si>
+    <t>271 (1.9%)</t>
+  </si>
+  <si>
+    <t>696 (4.8%)</t>
+  </si>
+  <si>
+    <t>3687 (25.4%)</t>
+  </si>
+  <si>
+    <t>9025 (62.1%)</t>
+  </si>
+  <si>
+    <t>137592 (21.3%)</t>
+  </si>
+  <si>
+    <t>151996 (23.5%)</t>
+  </si>
+  <si>
+    <t>158786 (24.6%)</t>
+  </si>
+  <si>
+    <t>197509 (30.6%)</t>
+  </si>
+  <si>
+    <t>1625 (11.4%)</t>
+  </si>
+  <si>
+    <t>3152 (22.2%)</t>
+  </si>
+  <si>
+    <t>3897 (27.4%)</t>
+  </si>
+  <si>
+    <t>5543 (39%)</t>
+  </si>
+  <si>
+    <t>416653 (63.7%)</t>
+  </si>
+  <si>
+    <t>237425 (36.3%)</t>
+  </si>
+  <si>
+    <t>8198 (56.5%)</t>
+  </si>
+  <si>
+    <t>6324 (43.5%)</t>
+  </si>
+  <si>
+    <t>276419 (42%)</t>
+  </si>
+  <si>
+    <t>315647 (48%)</t>
+  </si>
+  <si>
+    <t>32543 (4.9%)</t>
+  </si>
+  <si>
+    <t>33248 (5.1%)</t>
+  </si>
+  <si>
+    <t>11125 (76.8%)</t>
+  </si>
+  <si>
+    <t>2274 (15.7%)</t>
+  </si>
+  <si>
+    <t>420 (2.9%)</t>
+  </si>
+  <si>
+    <t>668 (4.6%)</t>
+  </si>
+  <si>
+    <t>67631 (10.5%)</t>
+  </si>
+  <si>
+    <t>140051 (21.7%)</t>
+  </si>
+  <si>
+    <t>437651 (67.8%)</t>
+  </si>
+  <si>
+    <t>1818 (13%)</t>
+  </si>
+  <si>
+    <t>2913 (20.8%)</t>
+  </si>
+  <si>
+    <t>9253 (66.2%)</t>
+  </si>
+  <si>
+    <t>31926 (4.9%)</t>
+  </si>
+  <si>
+    <t>98434 (15.3%)</t>
+  </si>
+  <si>
+    <t>514973 (79.8%)</t>
+  </si>
+  <si>
+    <t>265 (1.9%)</t>
+  </si>
+  <si>
+    <t>765 (5.5%)</t>
+  </si>
+  <si>
+    <t>12954 (92.6%)</t>
+  </si>
+  <si>
+    <t>115181 (17.4%)</t>
+  </si>
+  <si>
+    <t>143170 (21.7%)</t>
+  </si>
+  <si>
+    <t>238078 (36%)</t>
+  </si>
+  <si>
+    <t>164052 (24.8%)</t>
+  </si>
+  <si>
+    <t>2093 (14.4%)</t>
+  </si>
+  <si>
+    <t>3887 (26.8%)</t>
+  </si>
+  <si>
+    <t>5597 (38.5%)</t>
+  </si>
+  <si>
+    <t>2950 (20.3%)</t>
+  </si>
+  <si>
+    <t>312351 (55%)</t>
+  </si>
+  <si>
+    <t>91160 (16.1%)</t>
+  </si>
+  <si>
+    <t>114109 (20.1%)</t>
+  </si>
+  <si>
+    <t>14232 (2.5%)</t>
+  </si>
+  <si>
+    <t>5990 (1.1%)</t>
+  </si>
+  <si>
+    <t>29776 (5.2%)</t>
+  </si>
+  <si>
+    <t>5991 (47.9%)</t>
+  </si>
+  <si>
+    <t>3034 (24.2%)</t>
+  </si>
+  <si>
+    <t>2462 (19.7%)</t>
+  </si>
+  <si>
+    <t>137 (1.1%)</t>
+  </si>
+  <si>
+    <t>168 (1.3%)</t>
+  </si>
+  <si>
+    <t>721 (5.8%)</t>
+  </si>
+  <si>
+    <t>52524 (8%)</t>
+  </si>
+  <si>
+    <t>63747 (9.7%)</t>
+  </si>
+  <si>
+    <t>542909 (82.4%)</t>
+  </si>
+  <si>
+    <t>3209 (22.1%)</t>
+  </si>
+  <si>
+    <t>3519 (24.3%)</t>
+  </si>
+  <si>
+    <t>7767 (53.6%)</t>
+  </si>
+  <si>
+    <t>653072 (98.9%)</t>
+  </si>
+  <si>
+    <t>7029 (1.1%)</t>
+  </si>
+  <si>
+    <t>13665 (94.3%)</t>
+  </si>
+  <si>
+    <t>825 (5.7%)</t>
+  </si>
+  <si>
+    <t>4.36 (0.015)</t>
+  </si>
+  <si>
+    <t>7.493 (0.136)</t>
+  </si>
+  <si>
+    <t>15664.085 (62.906)</t>
+  </si>
+  <si>
+    <t>23321.675 (441.924)</t>
+  </si>
+  <si>
+    <t>9.72 (0.009)</t>
+  </si>
+  <si>
+    <t>1.701 (0.037)</t>
+  </si>
+  <si>
+    <t>8.813 (0.016)</t>
+  </si>
+  <si>
+    <t>15.745 (0.136)</t>
+  </si>
+  <si>
+    <t>4506.632 (6.658)</t>
+  </si>
+  <si>
+    <t>3628.788 (38.712)</t>
+  </si>
+  <si>
+    <t>323 (5.4%)</t>
+  </si>
+  <si>
+    <t>116 (1.9%)</t>
+  </si>
+  <si>
+    <t>270 (4.5%)</t>
+  </si>
+  <si>
+    <t>1505 (25.1%)</t>
+  </si>
+  <si>
+    <t>3776 (63%)</t>
+  </si>
+  <si>
+    <t>192 (6.3%)</t>
+  </si>
+  <si>
+    <t>861 (28.4%)</t>
+  </si>
+  <si>
+    <t>1728 (56.9%)</t>
+  </si>
+  <si>
+    <t>171 (6.9%)</t>
+  </si>
+  <si>
+    <t>42 (1.7%)</t>
+  </si>
+  <si>
+    <t>100 (4%)</t>
+  </si>
+  <si>
+    <t>624 (25.3%)</t>
+  </si>
+  <si>
+    <t>1526 (62%)</t>
+  </si>
+  <si>
+    <t>12 (8.9%)</t>
+  </si>
+  <si>
+    <t>1 (1%)</t>
+  </si>
+  <si>
+    <t>14 (10.3%)</t>
+  </si>
+  <si>
+    <t>28 (20.2%)</t>
+  </si>
+  <si>
+    <t>82 (59.6%)</t>
+  </si>
+  <si>
+    <t>18 (10.6%)</t>
+  </si>
+  <si>
+    <t>1 (0.8%)</t>
+  </si>
+  <si>
+    <t>5 (3.2%)</t>
+  </si>
+  <si>
+    <t>52 (30.9%)</t>
+  </si>
+  <si>
+    <t>91 (54.4%)</t>
+  </si>
+  <si>
+    <t>46 (6.4%)</t>
+  </si>
+  <si>
+    <t>13 (1.9%)</t>
+  </si>
+  <si>
+    <t>27 (3.8%)</t>
+  </si>
+  <si>
+    <t>139 (19.3%)</t>
+  </si>
+  <si>
+    <t>495 (68.7%)</t>
+  </si>
+  <si>
+    <t>742 (12.6%)</t>
+  </si>
+  <si>
+    <t>1426 (24.3%)</t>
+  </si>
+  <si>
+    <t>1809 (30.8%)</t>
+  </si>
+  <si>
+    <t>1898 (32.3%)</t>
+  </si>
+  <si>
+    <t>227 (7.6%)</t>
+  </si>
+  <si>
+    <t>497 (16.7%)</t>
+  </si>
+  <si>
+    <t>671 (22.5%)</t>
+  </si>
+  <si>
+    <t>1588 (53.2%)</t>
+  </si>
+  <si>
+    <t>249 (10.3%)</t>
+  </si>
+  <si>
+    <t>544 (22.5%)</t>
+  </si>
+  <si>
+    <t>591 (24.5%)</t>
+  </si>
+  <si>
+    <t>1031 (42.7%)</t>
+  </si>
+  <si>
+    <t>32 (23.9%)</t>
+  </si>
+  <si>
+    <t>40 (29.9%)</t>
+  </si>
+  <si>
+    <t>28 (20.5%)</t>
+  </si>
+  <si>
+    <t>34 (25.7%)</t>
+  </si>
+  <si>
+    <t>3 (1.8%)</t>
+  </si>
+  <si>
+    <t>27 (18.6%)</t>
+  </si>
+  <si>
+    <t>24 (16.3%)</t>
+  </si>
+  <si>
+    <t>92 (63.3%)</t>
+  </si>
+  <si>
+    <t>109 (15.5%)</t>
+  </si>
+  <si>
+    <t>165 (23.5%)</t>
+  </si>
+  <si>
+    <t>190 (26.9%)</t>
+  </si>
+  <si>
+    <t>240 (34.1%)</t>
+  </si>
+  <si>
+    <t>3418 (57%)</t>
+  </si>
+  <si>
+    <t>2573 (43%)</t>
+  </si>
+  <si>
+    <t>1743 (57.5%)</t>
+  </si>
+  <si>
+    <t>1290 (42.5%)</t>
+  </si>
+  <si>
+    <t>1386 (56.3%)</t>
+  </si>
+  <si>
+    <t>1077 (43.7%)</t>
+  </si>
+  <si>
+    <t>81 (59.2%)</t>
+  </si>
+  <si>
+    <t>56 (40.8%)</t>
+  </si>
+  <si>
+    <t>86 (51.5%)</t>
+  </si>
+  <si>
+    <t>81 (48.5%)</t>
+  </si>
+  <si>
+    <t>388 (53.8%)</t>
+  </si>
+  <si>
+    <t>333 (46.2%)</t>
+  </si>
+  <si>
+    <t>4372 (73.2%)</t>
+  </si>
+  <si>
+    <t>1152 (19.3%)</t>
+  </si>
+  <si>
+    <t>140 (2.3%)</t>
+  </si>
+  <si>
+    <t>310 (5.2%)</t>
+  </si>
+  <si>
+    <t>2478 (82%)</t>
+  </si>
+  <si>
+    <t>332 (11%)</t>
+  </si>
+  <si>
+    <t>97 (3.2%)</t>
+  </si>
+  <si>
+    <t>115 (3.8%)</t>
+  </si>
+  <si>
+    <t>1949 (79.2%)</t>
+  </si>
+  <si>
+    <t>287 (11.7%)</t>
+  </si>
+  <si>
+    <t>86 (3.5%)</t>
+  </si>
+  <si>
+    <t>138 (5.6%)</t>
+  </si>
+  <si>
+    <t>92 (67%)</t>
+  </si>
+  <si>
+    <t>35 (25.7%)</t>
+  </si>
+  <si>
+    <t>1 (1.1%)</t>
+  </si>
+  <si>
+    <t>9 (6.2%)</t>
+  </si>
+  <si>
+    <t>153 (90.9%)</t>
+  </si>
+  <si>
+    <t>6 (3.5%)</t>
+  </si>
+  <si>
+    <t>4 (2.4%)</t>
+  </si>
+  <si>
+    <t>544 (75.4%)</t>
+  </si>
+  <si>
+    <t>112 (15.5%)</t>
+  </si>
+  <si>
+    <t>22 (3.1%)</t>
+  </si>
+  <si>
+    <t>43 (6%)</t>
+  </si>
+  <si>
+    <t>694 (11.9%)</t>
+  </si>
+  <si>
+    <t>1220 (20.9%)</t>
+  </si>
+  <si>
+    <t>3910 (67.1%)</t>
+  </si>
+  <si>
+    <t>466 (15.8%)</t>
+  </si>
+  <si>
+    <t>633 (21.5%)</t>
+  </si>
+  <si>
+    <t>1848 (62.7%)</t>
+  </si>
+  <si>
+    <t>318 (13.5%)</t>
+  </si>
+  <si>
+    <t>483 (20.5%)</t>
+  </si>
+  <si>
+    <t>1553 (66%)</t>
+  </si>
+  <si>
+    <t>18 (12.8%)</t>
+  </si>
+  <si>
+    <t>28 (20.7%)</t>
+  </si>
+  <si>
+    <t>91 (66.5%)</t>
+  </si>
+  <si>
+    <t>9 (5.5%)</t>
+  </si>
+  <si>
+    <t>31 (20%)</t>
+  </si>
+  <si>
+    <t>117 (74.6%)</t>
+  </si>
+  <si>
+    <t>94 (13.3%)</t>
+  </si>
+  <si>
+    <t>162 (23%)</t>
+  </si>
+  <si>
+    <t>450 (63.8%)</t>
+  </si>
+  <si>
+    <t>174 (3%)</t>
+  </si>
+  <si>
+    <t>316 (5.4%)</t>
+  </si>
+  <si>
+    <t>5335 (91.6%)</t>
+  </si>
+  <si>
+    <t>15 (0.5%)</t>
+  </si>
+  <si>
+    <t>128 (4.3%)</t>
+  </si>
+  <si>
+    <t>2805 (95.2%)</t>
+  </si>
+  <si>
+    <t>14 (0.6%)</t>
+  </si>
+  <si>
+    <t>170 (7.2%)</t>
+  </si>
+  <si>
+    <t>2171 (92.2%)</t>
+  </si>
+  <si>
+    <t>10 (7.1%)</t>
+  </si>
+  <si>
+    <t>126 (92%)</t>
+  </si>
+  <si>
+    <t>12 (7.4%)</t>
+  </si>
+  <si>
+    <t>4 (2.5%)</t>
+  </si>
+  <si>
+    <t>142 (90.2%)</t>
+  </si>
+  <si>
+    <t>5 (0.7%)</t>
+  </si>
+  <si>
+    <t>36 (5.1%)</t>
+  </si>
+  <si>
+    <t>666 (94.2%)</t>
+  </si>
+  <si>
+    <t>910 (15.2%)</t>
+  </si>
+  <si>
+    <t>1769 (29.5%)</t>
+  </si>
+  <si>
+    <t>2224 (37.1%)</t>
+  </si>
+  <si>
+    <t>1089 (18.2%)</t>
+  </si>
+  <si>
+    <t>537 (17.7%)</t>
+  </si>
+  <si>
+    <t>750 (24.7%)</t>
+  </si>
+  <si>
+    <t>1488 (49%)</t>
+  </si>
+  <si>
+    <t>260 (8.6%)</t>
+  </si>
+  <si>
+    <t>381 (15.5%)</t>
+  </si>
+  <si>
+    <t>261 (10.6%)</t>
+  </si>
+  <si>
+    <t>860 (34.9%)</t>
+  </si>
+  <si>
+    <t>960 (39%)</t>
+  </si>
+  <si>
+    <t>19 (13.7%)</t>
+  </si>
+  <si>
+    <t>19 (14%)</t>
+  </si>
+  <si>
+    <t>24 (17.2%)</t>
+  </si>
+  <si>
+    <t>75 (55.1%)</t>
+  </si>
+  <si>
+    <t>3 (1.9%)</t>
+  </si>
+  <si>
+    <t>29 (17.5%)</t>
+  </si>
+  <si>
+    <t>100 (59.3%)</t>
+  </si>
+  <si>
+    <t>150 (20.7%)</t>
+  </si>
+  <si>
+    <t>145 (20.1%)</t>
+  </si>
+  <si>
+    <t>241 (33.4%)</t>
+  </si>
+  <si>
+    <t>186 (25.8%)</t>
+  </si>
+  <si>
+    <t>1292 (21.6%)</t>
+  </si>
+  <si>
+    <t>1492 (24.9%)</t>
+  </si>
+  <si>
+    <t>3200 (53.5%)</t>
+  </si>
+  <si>
+    <t>681 (22.5%)</t>
+  </si>
+  <si>
+    <t>609 (20.1%)</t>
+  </si>
+  <si>
+    <t>1735 (57.4%)</t>
+  </si>
+  <si>
+    <t>535 (21.8%)</t>
+  </si>
+  <si>
+    <t>591 (24.1%)</t>
+  </si>
+  <si>
+    <t>1329 (54.1%)</t>
+  </si>
+  <si>
+    <t>26 (19.3%)</t>
+  </si>
+  <si>
+    <t>38 (27.7%)</t>
+  </si>
+  <si>
+    <t>73 (53%)</t>
+  </si>
+  <si>
+    <t>48 (28.4%)</t>
+  </si>
+  <si>
+    <t>34 (20.1%)</t>
+  </si>
+  <si>
+    <t>86 (51.4%)</t>
+  </si>
+  <si>
+    <t>179 (24.9%)</t>
+  </si>
+  <si>
+    <t>194 (27%)</t>
+  </si>
+  <si>
+    <t>346 (48.1%)</t>
+  </si>
+  <si>
+    <t>5681 (95.1%)</t>
+  </si>
+  <si>
+    <t>296 (4.9%)</t>
+  </si>
+  <si>
+    <t>2854 (94.4%)</t>
+  </si>
+  <si>
+    <t>170 (5.6%)</t>
+  </si>
+  <si>
+    <t>2331 (95%)</t>
+  </si>
+  <si>
+    <t>123 (5%)</t>
+  </si>
+  <si>
+    <t>127 (94%)</t>
+  </si>
+  <si>
+    <t>8 (6%)</t>
+  </si>
+  <si>
+    <t>162 (96.3%)</t>
+  </si>
+  <si>
+    <t>6 (3.7%)</t>
+  </si>
+  <si>
+    <t>656 (91.1%)</t>
+  </si>
+  <si>
+    <t>64 (8.9%)</t>
+  </si>
+  <si>
+    <t>7.548 (1.052)</t>
+  </si>
+  <si>
+    <t>8.1 (0.308)</t>
+  </si>
+  <si>
+    <t>8.049 (0.357)</t>
+  </si>
+  <si>
+    <t>8.854 (1.284)</t>
+  </si>
+  <si>
+    <t>8.943 (0.565)</t>
+  </si>
+  <si>
+    <t>6.587 (0.175)</t>
+  </si>
+  <si>
+    <t>28854.55 (4567.87)</t>
+  </si>
+  <si>
+    <t>24044.435 (1002.883)</t>
+  </si>
+  <si>
+    <t>27114.837 (1342.675)</t>
+  </si>
+  <si>
+    <t>24879.563 (4404.628)</t>
+  </si>
+  <si>
+    <t>28903.003 (1843.924)</t>
+  </si>
+  <si>
+    <t>20717.693 (630.322)</t>
+  </si>
+  <si>
+    <t>2.339 (0.436)</t>
+  </si>
+  <si>
+    <t>1.938 (0.083)</t>
+  </si>
+  <si>
+    <t>1.813 (0.094)</t>
+  </si>
+  <si>
+    <t>2.18 (0.405)</t>
+  </si>
+  <si>
+    <t>1.642 (0.17)</t>
+  </si>
+  <si>
+    <t>1.625 (0.056)</t>
+  </si>
+  <si>
+    <t>13.67 (1.168)</t>
+  </si>
+  <si>
+    <t>15.743 (0.325)</t>
+  </si>
+  <si>
+    <t>15.604 (0.336)</t>
+  </si>
+  <si>
+    <t>15.312 (1.066)</t>
+  </si>
+  <si>
+    <t>17 (0.624)</t>
+  </si>
+  <si>
+    <t>15.594 (0.204)</t>
+  </si>
+  <si>
+    <t>4136.396 (327.627)</t>
+  </si>
+  <si>
+    <t>3440.29 (81.55)</t>
+  </si>
+  <si>
+    <t>3919.504 (99.042)</t>
+  </si>
+  <si>
+    <t>3583.158 (475.442)</t>
+  </si>
+  <si>
+    <t>3970.954 (209.862)</t>
+  </si>
+  <si>
+    <t>3544.937 (57.645)</t>
   </si>
 </sst>
 </file>
@@ -3031,7 +7135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="521">
+  <cellXfs count="1006">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3191,6 +7295,1461 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" wrapText="true"/>
@@ -4871,7 +10430,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4879,14 +10438,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.23046875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.76953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
         <v>462</v>
@@ -4896,548 +10455,542 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="482">
-        <v>464</v>
-      </c>
-      <c r="B2" t="s" s="482">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s" s="482">
-        <v>47</v>
+      <c r="A2" t="s" s="977">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s" s="977">
+        <v>2066</v>
+      </c>
+      <c r="C2" t="s" s="977">
+        <v>2071</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="482">
-        <v>465</v>
-      </c>
-      <c r="B3" t="s" s="482">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s" s="482">
-        <v>48</v>
+      <c r="A3" t="s" s="977">
+        <v>474</v>
+      </c>
+      <c r="B3" t="s" s="977">
+        <v>2067</v>
+      </c>
+      <c r="C3" t="s" s="977">
+        <v>2072</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="482">
-        <v>466</v>
-      </c>
-      <c r="B4" t="s" s="482">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s" s="482">
-        <v>0</v>
+      <c r="A4" t="s" s="977">
+        <v>473</v>
+      </c>
+      <c r="B4" t="s" s="977">
+        <v>2068</v>
+      </c>
+      <c r="C4" t="s" s="977">
+        <v>2073</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="482">
-        <v>467</v>
-      </c>
-      <c r="B5" t="s" s="482">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s" s="482">
-        <v>1</v>
+      <c r="A5" t="s" s="977">
+        <v>471</v>
+      </c>
+      <c r="B5" t="s" s="977">
+        <v>2069</v>
+      </c>
+      <c r="C5" t="s" s="977">
+        <v>2074</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="482">
-        <v>468</v>
-      </c>
-      <c r="B6" t="s" s="482">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s" s="482">
-        <v>2</v>
+      <c r="A6" t="s" s="977">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s" s="977">
+        <v>2070</v>
+      </c>
+      <c r="C6" t="s" s="977">
+        <v>2075</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="482">
-        <v>469</v>
-      </c>
-      <c r="B7" t="s" s="482">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s" s="482">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" t="s">
-        <v>463</v>
+      <c r="A8" t="s" s="978">
+        <v>480</v>
+      </c>
+      <c r="B8" t="s" s="978">
+        <v>2076</v>
+      </c>
+      <c r="C8" t="s" s="978">
+        <v>2080</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="483">
-        <v>472</v>
-      </c>
-      <c r="B9" t="s" s="483">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s" s="483">
-        <v>56</v>
+      <c r="A9" t="s" s="978">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s" s="978">
+        <v>2077</v>
+      </c>
+      <c r="C9" t="s" s="978">
+        <v>2081</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="483">
-        <v>474</v>
-      </c>
-      <c r="B10" t="s" s="483">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s" s="483">
-        <v>58</v>
+      <c r="A10" t="s" s="978">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s" s="978">
+        <v>2078</v>
+      </c>
+      <c r="C10" t="s" s="978">
+        <v>2082</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="483">
-        <v>473</v>
-      </c>
-      <c r="B11" t="s" s="483">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s" s="483">
-        <v>57</v>
+      <c r="A11" t="s" s="978">
+        <v>477</v>
+      </c>
+      <c r="B11" t="s" s="978">
+        <v>2079</v>
+      </c>
+      <c r="C11" t="s" s="978">
+        <v>2083</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="483">
-        <v>471</v>
-      </c>
-      <c r="B12" t="s" s="483">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s" s="483">
-        <v>55</v>
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="483">
-        <v>475</v>
-      </c>
-      <c r="B13" t="s" s="483">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s" s="483">
-        <v>54</v>
+      <c r="A13" t="s" s="979">
+        <v>482</v>
+      </c>
+      <c r="B13" t="s" s="979">
+        <v>2084</v>
+      </c>
+      <c r="C13" t="s" s="979">
+        <v>2086</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" t="s">
-        <v>463</v>
+      <c r="A14" t="s" s="979">
+        <v>483</v>
+      </c>
+      <c r="B14" t="s" s="979">
+        <v>2085</v>
+      </c>
+      <c r="C14" t="s" s="979">
+        <v>2087</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="484">
-        <v>480</v>
-      </c>
-      <c r="B15" t="s" s="484">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s" s="484">
-        <v>5</v>
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="484">
-        <v>479</v>
-      </c>
-      <c r="B16" t="s" s="484">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s" s="484">
-        <v>63</v>
+      <c r="A16" t="s" s="980">
+        <v>485</v>
+      </c>
+      <c r="B16" t="s" s="980">
+        <v>2088</v>
+      </c>
+      <c r="C16" t="s" s="980">
+        <v>2092</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="484">
-        <v>478</v>
-      </c>
-      <c r="B17" t="s" s="484">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s" s="484">
-        <v>4</v>
+      <c r="A17" t="s" s="980">
+        <v>486</v>
+      </c>
+      <c r="B17" t="s" s="980">
+        <v>2089</v>
+      </c>
+      <c r="C17" t="s" s="980">
+        <v>2093</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="484">
-        <v>477</v>
-      </c>
-      <c r="B18" t="s" s="484">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s" s="484">
-        <v>3</v>
+      <c r="A18" t="s" s="980">
+        <v>487</v>
+      </c>
+      <c r="B18" t="s" s="980">
+        <v>2090</v>
+      </c>
+      <c r="C18" t="s" s="980">
+        <v>2094</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>481</v>
-      </c>
-      <c r="B19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" t="s">
-        <v>463</v>
+      <c r="A19" t="s" s="980">
+        <v>469</v>
+      </c>
+      <c r="B19" t="s" s="980">
+        <v>2091</v>
+      </c>
+      <c r="C19" t="s" s="980">
+        <v>2095</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="485">
-        <v>482</v>
-      </c>
-      <c r="B20" t="s" s="485">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s" s="485">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="485">
-        <v>483</v>
-      </c>
-      <c r="B21" t="s" s="485">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s" s="485">
-        <v>66</v>
+      <c r="A21" t="s" s="981">
+        <v>489</v>
+      </c>
+      <c r="B21" t="s" s="981">
+        <v>2096</v>
+      </c>
+      <c r="C21" t="s" s="981">
+        <v>2099</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>484</v>
-      </c>
-      <c r="B22" t="s">
-        <v>462</v>
-      </c>
-      <c r="C22" t="s">
-        <v>463</v>
+      <c r="A22" t="s" s="981">
+        <v>490</v>
+      </c>
+      <c r="B22" t="s" s="981">
+        <v>2097</v>
+      </c>
+      <c r="C22" t="s" s="981">
+        <v>2100</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="486">
-        <v>485</v>
-      </c>
-      <c r="B23" t="s" s="486">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s" s="486">
-        <v>71</v>
+      <c r="A23" t="s" s="981">
+        <v>491</v>
+      </c>
+      <c r="B23" t="s" s="981">
+        <v>2098</v>
+      </c>
+      <c r="C23" t="s" s="981">
+        <v>2101</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="486">
-        <v>486</v>
-      </c>
-      <c r="B24" t="s" s="486">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s" s="486">
-        <v>7</v>
+      <c r="A24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="486">
-        <v>487</v>
-      </c>
-      <c r="B25" t="s" s="486">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s" s="486">
-        <v>8</v>
+      <c r="A25" t="s" s="982">
+        <v>499</v>
+      </c>
+      <c r="B25" t="s" s="982">
+        <v>2102</v>
+      </c>
+      <c r="C25" t="s" s="982">
+        <v>2105</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="486">
-        <v>469</v>
-      </c>
-      <c r="B26" t="s" s="486">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s" s="486">
-        <v>9</v>
+      <c r="A26" t="s" s="982">
+        <v>500</v>
+      </c>
+      <c r="B26" t="s" s="982">
+        <v>2103</v>
+      </c>
+      <c r="C26" t="s" s="982">
+        <v>2106</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27" t="s">
-        <v>462</v>
-      </c>
-      <c r="C27" t="s">
-        <v>463</v>
+      <c r="A27" t="s" s="982">
+        <v>501</v>
+      </c>
+      <c r="B27" t="s" s="982">
+        <v>2104</v>
+      </c>
+      <c r="C27" t="s" s="982">
+        <v>2107</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="487">
-        <v>489</v>
-      </c>
-      <c r="B28" t="s" s="487">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s" s="487">
-        <v>10</v>
+      <c r="A28" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="487">
-        <v>490</v>
-      </c>
-      <c r="B29" t="s" s="487">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s" s="487">
-        <v>11</v>
+      <c r="A29" t="s" s="983">
+        <v>503</v>
+      </c>
+      <c r="B29" t="s" s="983">
+        <v>2108</v>
+      </c>
+      <c r="C29" t="s" s="983">
+        <v>2112</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="487">
-        <v>491</v>
-      </c>
-      <c r="B30" t="s" s="487">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s" s="487">
-        <v>75</v>
+      <c r="A30" t="s" s="983">
+        <v>504</v>
+      </c>
+      <c r="B30" t="s" s="983">
+        <v>2109</v>
+      </c>
+      <c r="C30" t="s" s="983">
+        <v>2113</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C31" t="s">
-        <v>463</v>
+      <c r="A31" t="s" s="983">
+        <v>505</v>
+      </c>
+      <c r="B31" t="s" s="983">
+        <v>2110</v>
+      </c>
+      <c r="C31" t="s" s="983">
+        <v>2114</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="488">
-        <v>493</v>
-      </c>
-      <c r="B32" t="s" s="488">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s" s="488">
-        <v>81</v>
+      <c r="A32" t="s" s="983">
+        <v>506</v>
+      </c>
+      <c r="B32" t="s" s="983">
+        <v>2111</v>
+      </c>
+      <c r="C32" t="s" s="983">
+        <v>2115</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="488">
-        <v>494</v>
-      </c>
-      <c r="B33" t="s" s="488">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s" s="488">
-        <v>12</v>
+      <c r="A33" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="488">
-        <v>495</v>
-      </c>
-      <c r="B34" t="s" s="488">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s" s="488">
-        <v>13</v>
+      <c r="A34" t="s" s="984">
+        <v>513</v>
+      </c>
+      <c r="B34" t="s" s="984">
+        <v>2116</v>
+      </c>
+      <c r="C34" t="s" s="984">
+        <v>2122</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="488">
-        <v>496</v>
-      </c>
-      <c r="B35" t="s" s="488">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s" s="488">
-        <v>12</v>
+      <c r="A35" t="s" s="984">
+        <v>514</v>
+      </c>
+      <c r="B35" t="s" s="984">
+        <v>2117</v>
+      </c>
+      <c r="C35" t="s" s="984">
+        <v>2123</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="488">
-        <v>497</v>
-      </c>
-      <c r="B36" t="s" s="488">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s" s="488">
-        <v>14</v>
+      <c r="A36" t="s" s="984">
+        <v>515</v>
+      </c>
+      <c r="B36" t="s" s="984">
+        <v>2118</v>
+      </c>
+      <c r="C36" t="s" s="984">
+        <v>2124</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>498</v>
-      </c>
-      <c r="B37" t="s">
-        <v>462</v>
-      </c>
-      <c r="C37" t="s">
-        <v>463</v>
+      <c r="A37" t="s" s="984">
+        <v>516</v>
+      </c>
+      <c r="B37" t="s" s="984">
+        <v>2119</v>
+      </c>
+      <c r="C37" t="s" s="984">
+        <v>2125</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="489">
-        <v>499</v>
-      </c>
-      <c r="B38" t="s" s="489">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s" s="489">
-        <v>15</v>
+      <c r="A38" t="s" s="984">
+        <v>517</v>
+      </c>
+      <c r="B38" t="s" s="984">
+        <v>2120</v>
+      </c>
+      <c r="C38" t="s" s="984">
+        <v>2126</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="489">
-        <v>500</v>
-      </c>
-      <c r="B39" t="s" s="489">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s" s="489">
-        <v>16</v>
+      <c r="A39" t="s" s="984">
+        <v>469</v>
+      </c>
+      <c r="B39" t="s" s="984">
+        <v>2121</v>
+      </c>
+      <c r="C39" t="s" s="984">
+        <v>2127</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="489">
-        <v>501</v>
-      </c>
-      <c r="B40" t="s" s="489">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s" s="489">
-        <v>85</v>
+      <c r="A40" t="s">
+        <v>518</v>
+      </c>
+      <c r="B40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>502</v>
-      </c>
-      <c r="B41" t="s">
-        <v>462</v>
-      </c>
-      <c r="C41" t="s">
-        <v>463</v>
+      <c r="A41" t="s" s="985">
+        <v>521</v>
+      </c>
+      <c r="B41" t="s" s="985">
+        <v>2128</v>
+      </c>
+      <c r="C41" t="s" s="985">
+        <v>2131</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="490">
-        <v>503</v>
-      </c>
-      <c r="B42" t="s" s="490">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s" s="490">
-        <v>17</v>
+      <c r="A42" t="s" s="985">
+        <v>520</v>
+      </c>
+      <c r="B42" t="s" s="985">
+        <v>2129</v>
+      </c>
+      <c r="C42" t="s" s="985">
+        <v>2132</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="490">
-        <v>504</v>
-      </c>
-      <c r="B43" t="s" s="490">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s" s="490">
-        <v>18</v>
+      <c r="A43" t="s" s="985">
+        <v>519</v>
+      </c>
+      <c r="B43" t="s" s="985">
+        <v>2130</v>
+      </c>
+      <c r="C43" t="s" s="985">
+        <v>2133</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="490">
-        <v>505</v>
-      </c>
-      <c r="B44" t="s" s="490">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s" s="490">
-        <v>90</v>
+      <c r="A44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="490">
-        <v>506</v>
-      </c>
-      <c r="B45" t="s" s="490">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s" s="490">
-        <v>19</v>
+      <c r="A45" t="s" s="986">
+        <v>523</v>
+      </c>
+      <c r="B45" t="s" s="986">
+        <v>2134</v>
+      </c>
+      <c r="C45" t="s" s="986">
+        <v>2136</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>507</v>
-      </c>
-      <c r="B46" t="s">
-        <v>462</v>
-      </c>
-      <c r="C46" t="s">
-        <v>463</v>
+      <c r="A46" t="s" s="986">
+        <v>524</v>
+      </c>
+      <c r="B46" t="s" s="986">
+        <v>2135</v>
+      </c>
+      <c r="C46" t="s" s="986">
+        <v>2137</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="491">
-        <v>508</v>
-      </c>
-      <c r="B47" t="s" s="491">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s" s="491">
-        <v>20</v>
+      <c r="A47"/>
+      <c r="B47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C47" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="491">
-        <v>509</v>
-      </c>
-      <c r="B48" t="s" s="491">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s" s="491">
-        <v>21</v>
+      <c r="A48" t="s">
+        <v>536</v>
+      </c>
+      <c r="B48" t="s" s="987">
+        <v>2138</v>
+      </c>
+      <c r="C48" t="s" s="987">
+        <v>2139</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="491">
-        <v>510</v>
-      </c>
-      <c r="B49" t="s" s="491">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s" s="491">
-        <v>22</v>
+      <c r="A49"/>
+      <c r="B49" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="491">
-        <v>511</v>
-      </c>
-      <c r="B50" t="s" s="491">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s" s="491">
-        <v>23</v>
+      <c r="A50" t="s">
+        <v>537</v>
+      </c>
+      <c r="B50" t="s" s="988">
+        <v>2140</v>
+      </c>
+      <c r="C50" t="s" s="988">
+        <v>2141</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>512</v>
-      </c>
+      <c r="A51"/>
       <c r="B51" t="s">
         <v>462</v>
       </c>
@@ -5446,312 +10999,54 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="492">
-        <v>513</v>
-      </c>
-      <c r="B52" t="s" s="492">
-        <v>95</v>
-      </c>
-      <c r="C52" t="s" s="492">
-        <v>101</v>
+      <c r="A52" t="s">
+        <v>538</v>
+      </c>
+      <c r="B52" t="s" s="989">
+        <v>2142</v>
+      </c>
+      <c r="C52" t="s" s="989">
+        <v>2143</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="492">
-        <v>514</v>
-      </c>
-      <c r="B53" t="s" s="492">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s" s="492">
-        <v>24</v>
+      <c r="A53"/>
+      <c r="B53" t="s">
+        <v>462</v>
+      </c>
+      <c r="C53" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="492">
-        <v>515</v>
-      </c>
-      <c r="B54" t="s" s="492">
-        <v>97</v>
-      </c>
-      <c r="C54" t="s" s="492">
-        <v>25</v>
+      <c r="A54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B54" t="s" s="990">
+        <v>2144</v>
+      </c>
+      <c r="C54" t="s" s="990">
+        <v>2145</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="492">
-        <v>516</v>
-      </c>
-      <c r="B55" t="s" s="492">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s" s="492">
-        <v>26</v>
+      <c r="A55"/>
+      <c r="B55" t="s">
+        <v>462</v>
+      </c>
+      <c r="C55" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="492">
-        <v>517</v>
-      </c>
-      <c r="B56" t="s" s="492">
-        <v>99</v>
-      </c>
-      <c r="C56" t="s" s="492">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="492">
-        <v>469</v>
-      </c>
-      <c r="B57" t="s" s="492">
-        <v>100</v>
-      </c>
-      <c r="C57" t="s" s="492">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>518</v>
-      </c>
-      <c r="B58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C58" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="493">
-        <v>521</v>
-      </c>
-      <c r="B59" t="s" s="493">
-        <v>102</v>
-      </c>
-      <c r="C59" t="s" s="493">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="493">
-        <v>520</v>
-      </c>
-      <c r="B60" t="s" s="493">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s" s="493">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="493">
-        <v>519</v>
-      </c>
-      <c r="B61" t="s" s="493">
-        <v>103</v>
-      </c>
-      <c r="C61" t="s" s="493">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>522</v>
-      </c>
-      <c r="B62" t="s">
-        <v>462</v>
-      </c>
-      <c r="C62" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="494">
-        <v>523</v>
-      </c>
-      <c r="B63" t="s" s="494">
-        <v>525</v>
-      </c>
-      <c r="C63" t="s" s="494">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="494">
-        <v>524</v>
-      </c>
-      <c r="B64" t="s" s="494">
-        <v>526</v>
-      </c>
-      <c r="C64" t="s" s="494">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>528</v>
-      </c>
-      <c r="B65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C65" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="495">
-        <v>523</v>
-      </c>
-      <c r="B66" t="s" s="495">
-        <v>529</v>
-      </c>
-      <c r="C66" t="s" s="495">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="495">
-        <v>524</v>
-      </c>
-      <c r="B67" t="s" s="495">
-        <v>106</v>
-      </c>
-      <c r="C67" t="s" s="495">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>531</v>
-      </c>
-      <c r="B68" t="s">
-        <v>462</v>
-      </c>
-      <c r="C68" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="496">
-        <v>523</v>
-      </c>
-      <c r="B69" t="s" s="496">
-        <v>532</v>
-      </c>
-      <c r="C69" t="s" s="496">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="496">
-        <v>524</v>
-      </c>
-      <c r="B70" t="s" s="496">
-        <v>533</v>
-      </c>
-      <c r="C70" t="s" s="496">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71"/>
-      <c r="B71" t="s">
-        <v>462</v>
-      </c>
-      <c r="C71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>536</v>
-      </c>
-      <c r="B72" t="s" s="497">
-        <v>178</v>
-      </c>
-      <c r="C72" t="s" s="497">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73"/>
-      <c r="B73" t="s">
-        <v>462</v>
-      </c>
-      <c r="C73" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>537</v>
-      </c>
-      <c r="B74" t="s" s="498">
-        <v>180</v>
-      </c>
-      <c r="C74" t="s" s="498">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75"/>
-      <c r="B75" t="s">
-        <v>462</v>
-      </c>
-      <c r="C75" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>538</v>
-      </c>
-      <c r="B76" t="s" s="499">
-        <v>539</v>
-      </c>
-      <c r="C76" t="s" s="499">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77"/>
-      <c r="B77" t="s">
-        <v>462</v>
-      </c>
-      <c r="C77" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>541</v>
-      </c>
-      <c r="B78" t="s" s="500">
-        <v>542</v>
-      </c>
-      <c r="C78" t="s" s="500">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79"/>
-      <c r="B79" t="s">
-        <v>462</v>
-      </c>
-      <c r="C79" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
+      <c r="A56" t="s">
         <v>702</v>
       </c>
-      <c r="B80" t="s" s="501">
-        <v>977</v>
-      </c>
-      <c r="C80" t="s" s="501">
-        <v>978</v>
+      <c r="B56" t="s" s="991">
+        <v>2146</v>
+      </c>
+      <c r="C56" t="s" s="991">
+        <v>2147</v>
       </c>
     </row>
   </sheetData>
@@ -5759,7 +11054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5767,18 +11062,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.23046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.2109375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.2109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="21.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="21.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.48046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
         <v>516</v>
@@ -5800,813 +11095,813 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="502">
-        <v>464</v>
-      </c>
-      <c r="B2" t="s" s="502">
-        <v>182</v>
-      </c>
-      <c r="C2" t="s" s="502">
-        <v>187</v>
-      </c>
-      <c r="D2" t="s" s="502">
-        <v>192</v>
-      </c>
-      <c r="E2" t="s" s="502">
-        <v>196</v>
-      </c>
-      <c r="F2" t="s" s="502">
-        <v>199</v>
-      </c>
-      <c r="G2" t="s" s="502">
-        <v>202</v>
+      <c r="A2" t="s" s="992">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s" s="992">
+        <v>2148</v>
+      </c>
+      <c r="C2" t="s" s="992">
+        <v>2153</v>
+      </c>
+      <c r="D2" t="s" s="992">
+        <v>2156</v>
+      </c>
+      <c r="E2" t="s" s="992">
+        <v>2161</v>
+      </c>
+      <c r="F2" t="s" s="992">
+        <v>2166</v>
+      </c>
+      <c r="G2" t="s" s="992">
+        <v>2171</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="502">
-        <v>465</v>
-      </c>
-      <c r="B3" t="s" s="502">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s" s="502">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s" s="502">
-        <v>193</v>
-      </c>
-      <c r="E3" t="s" s="502">
-        <v>197</v>
-      </c>
-      <c r="F3" t="s" s="502">
-        <v>200</v>
-      </c>
-      <c r="G3" t="s" s="502">
-        <v>203</v>
+      <c r="A3" t="s" s="992">
+        <v>474</v>
+      </c>
+      <c r="B3" t="s" s="992">
+        <v>2149</v>
+      </c>
+      <c r="C3" t="s" s="992">
+        <v>1704</v>
+      </c>
+      <c r="D3" t="s" s="992">
+        <v>2157</v>
+      </c>
+      <c r="E3" t="s" s="992">
+        <v>2162</v>
+      </c>
+      <c r="F3" t="s" s="992">
+        <v>2167</v>
+      </c>
+      <c r="G3" t="s" s="992">
+        <v>2172</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="502">
-        <v>466</v>
-      </c>
-      <c r="B4" t="s" s="502">
-        <v>184</v>
-      </c>
-      <c r="C4" t="s" s="502">
-        <v>189</v>
-      </c>
-      <c r="D4" t="s" s="502">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="F4" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="G4" t="s" s="502">
-        <v>204</v>
+      <c r="A4" t="s" s="992">
+        <v>473</v>
+      </c>
+      <c r="B4" t="s" s="992">
+        <v>2150</v>
+      </c>
+      <c r="C4" t="s" s="992">
+        <v>2153</v>
+      </c>
+      <c r="D4" t="s" s="992">
+        <v>2158</v>
+      </c>
+      <c r="E4" t="s" s="992">
+        <v>2163</v>
+      </c>
+      <c r="F4" t="s" s="992">
+        <v>2168</v>
+      </c>
+      <c r="G4" t="s" s="992">
+        <v>2173</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="502">
-        <v>467</v>
-      </c>
-      <c r="B5" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="C5" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="D5" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="E5" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="F5" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="G5" t="s" s="502">
-        <v>205</v>
+      <c r="A5" t="s" s="992">
+        <v>471</v>
+      </c>
+      <c r="B5" t="s" s="992">
+        <v>2151</v>
+      </c>
+      <c r="C5" t="s" s="992">
+        <v>2154</v>
+      </c>
+      <c r="D5" t="s" s="992">
+        <v>2159</v>
+      </c>
+      <c r="E5" t="s" s="992">
+        <v>2164</v>
+      </c>
+      <c r="F5" t="s" s="992">
+        <v>2169</v>
+      </c>
+      <c r="G5" t="s" s="992">
+        <v>2174</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="502">
-        <v>468</v>
-      </c>
-      <c r="B6" t="s" s="502">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s" s="502">
-        <v>190</v>
-      </c>
-      <c r="D6" t="s" s="502">
-        <v>195</v>
-      </c>
-      <c r="E6" t="s" s="502">
-        <v>198</v>
-      </c>
-      <c r="F6" t="s" s="502">
-        <v>201</v>
-      </c>
-      <c r="G6" t="s" s="502">
-        <v>206</v>
+      <c r="A6" t="s" s="992">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s" s="992">
+        <v>2152</v>
+      </c>
+      <c r="C6" t="s" s="992">
+        <v>2155</v>
+      </c>
+      <c r="D6" t="s" s="992">
+        <v>2160</v>
+      </c>
+      <c r="E6" t="s" s="992">
+        <v>2165</v>
+      </c>
+      <c r="F6" t="s" s="992">
+        <v>2170</v>
+      </c>
+      <c r="G6" t="s" s="992">
+        <v>2175</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="502">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" t="s">
         <v>469</v>
       </c>
-      <c r="B7" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s" s="502">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="E7" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="F7" t="s" s="502">
-        <v>185</v>
-      </c>
-      <c r="G7" t="s" s="502">
-        <v>185</v>
+      <c r="G7" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B8" t="s">
-        <v>516</v>
-      </c>
-      <c r="C8" t="s">
-        <v>514</v>
-      </c>
-      <c r="D8" t="s">
-        <v>515</v>
-      </c>
-      <c r="E8" t="s">
-        <v>517</v>
-      </c>
-      <c r="F8" t="s">
-        <v>469</v>
-      </c>
-      <c r="G8" t="s">
-        <v>513</v>
+      <c r="A8" t="s" s="993">
+        <v>480</v>
+      </c>
+      <c r="B8" t="s" s="993">
+        <v>2176</v>
+      </c>
+      <c r="C8" t="s" s="993">
+        <v>2180</v>
+      </c>
+      <c r="D8" t="s" s="993">
+        <v>2184</v>
+      </c>
+      <c r="E8" t="s" s="993">
+        <v>2188</v>
+      </c>
+      <c r="F8" t="s" s="993">
+        <v>2192</v>
+      </c>
+      <c r="G8" t="s" s="993">
+        <v>2196</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="503">
-        <v>472</v>
-      </c>
-      <c r="B9" t="s" s="503">
-        <v>209</v>
-      </c>
-      <c r="C9" t="s" s="503">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s" s="503">
-        <v>219</v>
-      </c>
-      <c r="E9" t="s" s="503">
-        <v>224</v>
-      </c>
-      <c r="F9" t="s" s="503">
-        <v>229</v>
-      </c>
-      <c r="G9" t="s" s="503">
-        <v>234</v>
+      <c r="A9" t="s" s="993">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s" s="993">
+        <v>2177</v>
+      </c>
+      <c r="C9" t="s" s="993">
+        <v>2181</v>
+      </c>
+      <c r="D9" t="s" s="993">
+        <v>2185</v>
+      </c>
+      <c r="E9" t="s" s="993">
+        <v>2189</v>
+      </c>
+      <c r="F9" t="s" s="993">
+        <v>2193</v>
+      </c>
+      <c r="G9" t="s" s="993">
+        <v>2197</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="503">
-        <v>474</v>
-      </c>
-      <c r="B10" t="s" s="503">
-        <v>211</v>
-      </c>
-      <c r="C10" t="s" s="503">
-        <v>216</v>
-      </c>
-      <c r="D10" t="s" s="503">
-        <v>221</v>
-      </c>
-      <c r="E10" t="s" s="503">
-        <v>226</v>
-      </c>
-      <c r="F10" t="s" s="503">
-        <v>231</v>
-      </c>
-      <c r="G10" t="s" s="503">
-        <v>236</v>
+      <c r="A10" t="s" s="993">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s" s="993">
+        <v>2178</v>
+      </c>
+      <c r="C10" t="s" s="993">
+        <v>2182</v>
+      </c>
+      <c r="D10" t="s" s="993">
+        <v>2186</v>
+      </c>
+      <c r="E10" t="s" s="993">
+        <v>2190</v>
+      </c>
+      <c r="F10" t="s" s="993">
+        <v>2194</v>
+      </c>
+      <c r="G10" t="s" s="993">
+        <v>2198</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="503">
-        <v>473</v>
-      </c>
-      <c r="B11" t="s" s="503">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s" s="503">
-        <v>215</v>
-      </c>
-      <c r="D11" t="s" s="503">
-        <v>220</v>
-      </c>
-      <c r="E11" t="s" s="503">
-        <v>225</v>
-      </c>
-      <c r="F11" t="s" s="503">
-        <v>230</v>
-      </c>
-      <c r="G11" t="s" s="503">
-        <v>235</v>
+      <c r="A11" t="s" s="993">
+        <v>477</v>
+      </c>
+      <c r="B11" t="s" s="993">
+        <v>2179</v>
+      </c>
+      <c r="C11" t="s" s="993">
+        <v>2183</v>
+      </c>
+      <c r="D11" t="s" s="993">
+        <v>2187</v>
+      </c>
+      <c r="E11" t="s" s="993">
+        <v>2191</v>
+      </c>
+      <c r="F11" t="s" s="993">
+        <v>2195</v>
+      </c>
+      <c r="G11" t="s" s="993">
+        <v>2199</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="503">
-        <v>471</v>
-      </c>
-      <c r="B12" t="s" s="503">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s" s="503">
-        <v>213</v>
-      </c>
-      <c r="D12" t="s" s="503">
-        <v>218</v>
-      </c>
-      <c r="E12" t="s" s="503">
-        <v>223</v>
-      </c>
-      <c r="F12" t="s" s="503">
-        <v>228</v>
-      </c>
-      <c r="G12" t="s" s="503">
-        <v>233</v>
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="503">
-        <v>475</v>
-      </c>
-      <c r="B13" t="s" s="503">
-        <v>207</v>
-      </c>
-      <c r="C13" t="s" s="503">
-        <v>212</v>
-      </c>
-      <c r="D13" t="s" s="503">
-        <v>217</v>
-      </c>
-      <c r="E13" t="s" s="503">
-        <v>222</v>
-      </c>
-      <c r="F13" t="s" s="503">
-        <v>227</v>
-      </c>
-      <c r="G13" t="s" s="503">
-        <v>232</v>
+      <c r="A13" t="s" s="994">
+        <v>482</v>
+      </c>
+      <c r="B13" t="s" s="994">
+        <v>2200</v>
+      </c>
+      <c r="C13" t="s" s="994">
+        <v>2202</v>
+      </c>
+      <c r="D13" t="s" s="994">
+        <v>2204</v>
+      </c>
+      <c r="E13" t="s" s="994">
+        <v>2206</v>
+      </c>
+      <c r="F13" t="s" s="994">
+        <v>2208</v>
+      </c>
+      <c r="G13" t="s" s="994">
+        <v>2210</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C14" t="s">
-        <v>514</v>
-      </c>
-      <c r="D14" t="s">
-        <v>515</v>
-      </c>
-      <c r="E14" t="s">
-        <v>517</v>
-      </c>
-      <c r="F14" t="s">
-        <v>469</v>
-      </c>
-      <c r="G14" t="s">
-        <v>513</v>
+      <c r="A14" t="s" s="994">
+        <v>483</v>
+      </c>
+      <c r="B14" t="s" s="994">
+        <v>2201</v>
+      </c>
+      <c r="C14" t="s" s="994">
+        <v>2203</v>
+      </c>
+      <c r="D14" t="s" s="994">
+        <v>2205</v>
+      </c>
+      <c r="E14" t="s" s="994">
+        <v>2207</v>
+      </c>
+      <c r="F14" t="s" s="994">
+        <v>2209</v>
+      </c>
+      <c r="G14" t="s" s="994">
+        <v>2211</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="504">
-        <v>480</v>
-      </c>
-      <c r="B15" t="s" s="504">
-        <v>240</v>
-      </c>
-      <c r="C15" t="s" s="504">
-        <v>244</v>
-      </c>
-      <c r="D15" t="s" s="504">
-        <v>248</v>
-      </c>
-      <c r="E15" t="s" s="504">
-        <v>252</v>
-      </c>
-      <c r="F15" t="s" s="504">
-        <v>256</v>
-      </c>
-      <c r="G15" t="s" s="504">
-        <v>260</v>
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="504">
-        <v>479</v>
-      </c>
-      <c r="B16" t="s" s="504">
-        <v>239</v>
-      </c>
-      <c r="C16" t="s" s="504">
-        <v>243</v>
-      </c>
-      <c r="D16" t="s" s="504">
-        <v>247</v>
-      </c>
-      <c r="E16" t="s" s="504">
-        <v>251</v>
-      </c>
-      <c r="F16" t="s" s="504">
-        <v>255</v>
-      </c>
-      <c r="G16" t="s" s="504">
-        <v>259</v>
+      <c r="A16" t="s" s="995">
+        <v>485</v>
+      </c>
+      <c r="B16" t="s" s="995">
+        <v>2212</v>
+      </c>
+      <c r="C16" t="s" s="995">
+        <v>2216</v>
+      </c>
+      <c r="D16" t="s" s="995">
+        <v>2220</v>
+      </c>
+      <c r="E16" t="s" s="995">
+        <v>2224</v>
+      </c>
+      <c r="F16" t="s" s="995">
+        <v>2228</v>
+      </c>
+      <c r="G16" t="s" s="995">
+        <v>2231</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="504">
-        <v>478</v>
-      </c>
-      <c r="B17" t="s" s="504">
-        <v>238</v>
-      </c>
-      <c r="C17" t="s" s="504">
-        <v>242</v>
-      </c>
-      <c r="D17" t="s" s="504">
-        <v>246</v>
-      </c>
-      <c r="E17" t="s" s="504">
-        <v>250</v>
-      </c>
-      <c r="F17" t="s" s="504">
-        <v>254</v>
-      </c>
-      <c r="G17" t="s" s="504">
-        <v>258</v>
+      <c r="A17" t="s" s="995">
+        <v>486</v>
+      </c>
+      <c r="B17" t="s" s="995">
+        <v>2213</v>
+      </c>
+      <c r="C17" t="s" s="995">
+        <v>2217</v>
+      </c>
+      <c r="D17" t="s" s="995">
+        <v>2221</v>
+      </c>
+      <c r="E17" t="s" s="995">
+        <v>2225</v>
+      </c>
+      <c r="F17" t="s" s="995">
+        <v>2168</v>
+      </c>
+      <c r="G17" t="s" s="995">
+        <v>2232</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="504">
-        <v>477</v>
-      </c>
-      <c r="B18" t="s" s="504">
-        <v>237</v>
-      </c>
-      <c r="C18" t="s" s="504">
-        <v>241</v>
-      </c>
-      <c r="D18" t="s" s="504">
-        <v>245</v>
-      </c>
-      <c r="E18" t="s" s="504">
-        <v>249</v>
-      </c>
-      <c r="F18" t="s" s="504">
-        <v>253</v>
-      </c>
-      <c r="G18" t="s" s="504">
-        <v>257</v>
+      <c r="A18" t="s" s="995">
+        <v>487</v>
+      </c>
+      <c r="B18" t="s" s="995">
+        <v>2214</v>
+      </c>
+      <c r="C18" t="s" s="995">
+        <v>2218</v>
+      </c>
+      <c r="D18" t="s" s="995">
+        <v>2222</v>
+      </c>
+      <c r="E18" t="s" s="995">
+        <v>2226</v>
+      </c>
+      <c r="F18" t="s" s="995">
+        <v>2229</v>
+      </c>
+      <c r="G18" t="s" s="995">
+        <v>2233</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>481</v>
-      </c>
-      <c r="B19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D19" t="s">
-        <v>515</v>
-      </c>
-      <c r="E19" t="s">
-        <v>517</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="A19" t="s" s="995">
         <v>469</v>
       </c>
-      <c r="G19" t="s">
-        <v>513</v>
+      <c r="B19" t="s" s="995">
+        <v>2215</v>
+      </c>
+      <c r="C19" t="s" s="995">
+        <v>2219</v>
+      </c>
+      <c r="D19" t="s" s="995">
+        <v>2223</v>
+      </c>
+      <c r="E19" t="s" s="995">
+        <v>2227</v>
+      </c>
+      <c r="F19" t="s" s="995">
+        <v>2230</v>
+      </c>
+      <c r="G19" t="s" s="995">
+        <v>2234</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="505">
-        <v>482</v>
-      </c>
-      <c r="B20" t="s" s="505">
-        <v>261</v>
-      </c>
-      <c r="C20" t="s" s="505">
-        <v>263</v>
-      </c>
-      <c r="D20" t="s" s="505">
-        <v>265</v>
-      </c>
-      <c r="E20" t="s" s="505">
-        <v>267</v>
-      </c>
-      <c r="F20" t="s" s="505">
-        <v>269</v>
-      </c>
-      <c r="G20" t="s" s="505">
-        <v>271</v>
+      <c r="A20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E20" t="s">
+        <v>517</v>
+      </c>
+      <c r="F20" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="505">
-        <v>483</v>
-      </c>
-      <c r="B21" t="s" s="505">
-        <v>262</v>
-      </c>
-      <c r="C21" t="s" s="505">
-        <v>264</v>
-      </c>
-      <c r="D21" t="s" s="505">
-        <v>266</v>
-      </c>
-      <c r="E21" t="s" s="505">
-        <v>268</v>
-      </c>
-      <c r="F21" t="s" s="505">
-        <v>270</v>
-      </c>
-      <c r="G21" t="s" s="505">
-        <v>272</v>
+      <c r="A21" t="s" s="996">
+        <v>489</v>
+      </c>
+      <c r="B21" t="s" s="996">
+        <v>2235</v>
+      </c>
+      <c r="C21" t="s" s="996">
+        <v>2238</v>
+      </c>
+      <c r="D21" t="s" s="996">
+        <v>2241</v>
+      </c>
+      <c r="E21" t="s" s="996">
+        <v>2244</v>
+      </c>
+      <c r="F21" t="s" s="996">
+        <v>2247</v>
+      </c>
+      <c r="G21" t="s" s="996">
+        <v>2250</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>484</v>
-      </c>
-      <c r="B22" t="s">
-        <v>516</v>
-      </c>
-      <c r="C22" t="s">
-        <v>514</v>
-      </c>
-      <c r="D22" t="s">
-        <v>515</v>
-      </c>
-      <c r="E22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F22" t="s">
-        <v>469</v>
-      </c>
-      <c r="G22" t="s">
-        <v>513</v>
+      <c r="A22" t="s" s="996">
+        <v>490</v>
+      </c>
+      <c r="B22" t="s" s="996">
+        <v>2236</v>
+      </c>
+      <c r="C22" t="s" s="996">
+        <v>2239</v>
+      </c>
+      <c r="D22" t="s" s="996">
+        <v>2242</v>
+      </c>
+      <c r="E22" t="s" s="996">
+        <v>2245</v>
+      </c>
+      <c r="F22" t="s" s="996">
+        <v>2248</v>
+      </c>
+      <c r="G22" t="s" s="996">
+        <v>2251</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="506">
-        <v>485</v>
-      </c>
-      <c r="B23" t="s" s="506">
-        <v>273</v>
-      </c>
-      <c r="C23" t="s" s="506">
-        <v>277</v>
-      </c>
-      <c r="D23" t="s" s="506">
-        <v>281</v>
-      </c>
-      <c r="E23" t="s" s="506">
-        <v>284</v>
-      </c>
-      <c r="F23" t="s" s="506">
-        <v>287</v>
-      </c>
-      <c r="G23" t="s" s="506">
-        <v>291</v>
+      <c r="A23" t="s" s="996">
+        <v>491</v>
+      </c>
+      <c r="B23" t="s" s="996">
+        <v>2237</v>
+      </c>
+      <c r="C23" t="s" s="996">
+        <v>2240</v>
+      </c>
+      <c r="D23" t="s" s="996">
+        <v>2243</v>
+      </c>
+      <c r="E23" t="s" s="996">
+        <v>2246</v>
+      </c>
+      <c r="F23" t="s" s="996">
+        <v>2249</v>
+      </c>
+      <c r="G23" t="s" s="996">
+        <v>2252</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="506">
-        <v>486</v>
-      </c>
-      <c r="B24" t="s" s="506">
-        <v>274</v>
-      </c>
-      <c r="C24" t="s" s="506">
-        <v>278</v>
-      </c>
-      <c r="D24" t="s" s="506">
-        <v>282</v>
-      </c>
-      <c r="E24" t="s" s="506">
-        <v>285</v>
-      </c>
-      <c r="F24" t="s" s="506">
-        <v>288</v>
-      </c>
-      <c r="G24" t="s" s="506">
-        <v>292</v>
+      <c r="A24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" t="s">
+        <v>514</v>
+      </c>
+      <c r="D24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24" t="s">
+        <v>469</v>
+      </c>
+      <c r="G24" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="506">
-        <v>487</v>
-      </c>
-      <c r="B25" t="s" s="506">
-        <v>275</v>
-      </c>
-      <c r="C25" t="s" s="506">
-        <v>279</v>
-      </c>
-      <c r="D25" t="s" s="506">
-        <v>283</v>
-      </c>
-      <c r="E25" t="s" s="506">
-        <v>185</v>
-      </c>
-      <c r="F25" t="s" s="506">
-        <v>289</v>
-      </c>
-      <c r="G25" t="s" s="506">
-        <v>293</v>
+      <c r="A25" t="s" s="997">
+        <v>499</v>
+      </c>
+      <c r="B25" t="s" s="997">
+        <v>2253</v>
+      </c>
+      <c r="C25" t="s" s="997">
+        <v>2256</v>
+      </c>
+      <c r="D25" t="s" s="997">
+        <v>2259</v>
+      </c>
+      <c r="E25" t="s" s="997">
+        <v>2162</v>
+      </c>
+      <c r="F25" t="s" s="997">
+        <v>2264</v>
+      </c>
+      <c r="G25" t="s" s="997">
+        <v>2267</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="506">
-        <v>469</v>
-      </c>
-      <c r="B26" t="s" s="506">
-        <v>276</v>
-      </c>
-      <c r="C26" t="s" s="506">
-        <v>280</v>
-      </c>
-      <c r="D26" t="s" s="506">
-        <v>219</v>
-      </c>
-      <c r="E26" t="s" s="506">
-        <v>286</v>
-      </c>
-      <c r="F26" t="s" s="506">
-        <v>290</v>
-      </c>
-      <c r="G26" t="s" s="506">
-        <v>294</v>
+      <c r="A26" t="s" s="997">
+        <v>500</v>
+      </c>
+      <c r="B26" t="s" s="997">
+        <v>2254</v>
+      </c>
+      <c r="C26" t="s" s="997">
+        <v>2257</v>
+      </c>
+      <c r="D26" t="s" s="997">
+        <v>2260</v>
+      </c>
+      <c r="E26" t="s" s="997">
+        <v>2262</v>
+      </c>
+      <c r="F26" t="s" s="997">
+        <v>2265</v>
+      </c>
+      <c r="G26" t="s" s="997">
+        <v>2268</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27" t="s">
-        <v>516</v>
-      </c>
-      <c r="C27" t="s">
-        <v>514</v>
-      </c>
-      <c r="D27" t="s">
-        <v>515</v>
-      </c>
-      <c r="E27" t="s">
-        <v>517</v>
-      </c>
-      <c r="F27" t="s">
-        <v>469</v>
-      </c>
-      <c r="G27" t="s">
-        <v>513</v>
+      <c r="A27" t="s" s="997">
+        <v>501</v>
+      </c>
+      <c r="B27" t="s" s="997">
+        <v>2255</v>
+      </c>
+      <c r="C27" t="s" s="997">
+        <v>2258</v>
+      </c>
+      <c r="D27" t="s" s="997">
+        <v>2261</v>
+      </c>
+      <c r="E27" t="s" s="997">
+        <v>2263</v>
+      </c>
+      <c r="F27" t="s" s="997">
+        <v>2266</v>
+      </c>
+      <c r="G27" t="s" s="997">
+        <v>2269</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="507">
-        <v>489</v>
-      </c>
-      <c r="B28" t="s" s="507">
-        <v>295</v>
-      </c>
-      <c r="C28" t="s" s="507">
-        <v>298</v>
-      </c>
-      <c r="D28" t="s" s="507">
-        <v>301</v>
-      </c>
-      <c r="E28" t="s" s="507">
-        <v>304</v>
-      </c>
-      <c r="F28" t="s" s="507">
-        <v>306</v>
-      </c>
-      <c r="G28" t="s" s="507">
-        <v>309</v>
+      <c r="A28" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D28" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" t="s">
+        <v>517</v>
+      </c>
+      <c r="F28" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="507">
-        <v>490</v>
-      </c>
-      <c r="B29" t="s" s="507">
-        <v>296</v>
-      </c>
-      <c r="C29" t="s" s="507">
-        <v>299</v>
-      </c>
-      <c r="D29" t="s" s="507">
-        <v>302</v>
-      </c>
-      <c r="E29" t="s" s="507">
-        <v>251</v>
-      </c>
-      <c r="F29" t="s" s="507">
-        <v>307</v>
-      </c>
-      <c r="G29" t="s" s="507">
-        <v>310</v>
+      <c r="A29" t="s" s="998">
+        <v>503</v>
+      </c>
+      <c r="B29" t="s" s="998">
+        <v>2270</v>
+      </c>
+      <c r="C29" t="s" s="998">
+        <v>2274</v>
+      </c>
+      <c r="D29" t="s" s="998">
+        <v>2278</v>
+      </c>
+      <c r="E29" t="s" s="998">
+        <v>2282</v>
+      </c>
+      <c r="F29" t="s" s="998">
+        <v>2286</v>
+      </c>
+      <c r="G29" t="s" s="998">
+        <v>2289</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="507">
-        <v>491</v>
-      </c>
-      <c r="B30" t="s" s="507">
-        <v>297</v>
-      </c>
-      <c r="C30" t="s" s="507">
-        <v>300</v>
-      </c>
-      <c r="D30" t="s" s="507">
-        <v>303</v>
-      </c>
-      <c r="E30" t="s" s="507">
-        <v>305</v>
-      </c>
-      <c r="F30" t="s" s="507">
-        <v>308</v>
-      </c>
-      <c r="G30" t="s" s="507">
-        <v>311</v>
+      <c r="A30" t="s" s="998">
+        <v>504</v>
+      </c>
+      <c r="B30" t="s" s="998">
+        <v>2271</v>
+      </c>
+      <c r="C30" t="s" s="998">
+        <v>2275</v>
+      </c>
+      <c r="D30" t="s" s="998">
+        <v>2279</v>
+      </c>
+      <c r="E30" t="s" s="998">
+        <v>2283</v>
+      </c>
+      <c r="F30" t="s" s="998">
+        <v>2287</v>
+      </c>
+      <c r="G30" t="s" s="998">
+        <v>2290</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C31" t="s">
-        <v>514</v>
-      </c>
-      <c r="D31" t="s">
-        <v>515</v>
-      </c>
-      <c r="E31" t="s">
-        <v>517</v>
-      </c>
-      <c r="F31" t="s">
-        <v>469</v>
-      </c>
-      <c r="G31" t="s">
-        <v>513</v>
+      <c r="A31" t="s" s="998">
+        <v>505</v>
+      </c>
+      <c r="B31" t="s" s="998">
+        <v>2272</v>
+      </c>
+      <c r="C31" t="s" s="998">
+        <v>2276</v>
+      </c>
+      <c r="D31" t="s" s="998">
+        <v>2280</v>
+      </c>
+      <c r="E31" t="s" s="998">
+        <v>2284</v>
+      </c>
+      <c r="F31" t="s" s="998">
+        <v>897</v>
+      </c>
+      <c r="G31" t="s" s="998">
+        <v>2291</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="508">
-        <v>493</v>
-      </c>
-      <c r="B32" t="s" s="508">
-        <v>312</v>
-      </c>
-      <c r="C32" t="s" s="508">
-        <v>316</v>
-      </c>
-      <c r="D32" t="s" s="508">
-        <v>320</v>
-      </c>
-      <c r="E32" t="s" s="508">
-        <v>325</v>
-      </c>
-      <c r="F32" t="s" s="508">
-        <v>328</v>
-      </c>
-      <c r="G32" t="s" s="508">
-        <v>331</v>
+      <c r="A32" t="s" s="998">
+        <v>506</v>
+      </c>
+      <c r="B32" t="s" s="998">
+        <v>2273</v>
+      </c>
+      <c r="C32" t="s" s="998">
+        <v>2277</v>
+      </c>
+      <c r="D32" t="s" s="998">
+        <v>2281</v>
+      </c>
+      <c r="E32" t="s" s="998">
+        <v>2285</v>
+      </c>
+      <c r="F32" t="s" s="998">
+        <v>2288</v>
+      </c>
+      <c r="G32" t="s" s="998">
+        <v>2292</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="508">
-        <v>494</v>
-      </c>
-      <c r="B33" t="s" s="508">
-        <v>313</v>
-      </c>
-      <c r="C33" t="s" s="508">
-        <v>317</v>
-      </c>
-      <c r="D33" t="s" s="508">
-        <v>321</v>
-      </c>
-      <c r="E33" t="s" s="508">
-        <v>326</v>
-      </c>
-      <c r="F33" t="s" s="508">
-        <v>185</v>
-      </c>
-      <c r="G33" t="s" s="508">
-        <v>332</v>
+      <c r="A33" t="s">
+        <v>518</v>
+      </c>
+      <c r="B33" t="s">
+        <v>516</v>
+      </c>
+      <c r="C33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" t="s">
+        <v>515</v>
+      </c>
+      <c r="E33" t="s">
+        <v>517</v>
+      </c>
+      <c r="F33" t="s">
+        <v>469</v>
+      </c>
+      <c r="G33" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="508">
-        <v>495</v>
-      </c>
-      <c r="B34" t="s" s="508">
-        <v>314</v>
-      </c>
-      <c r="C34" t="s" s="508">
-        <v>318</v>
-      </c>
-      <c r="D34" t="s" s="508">
-        <v>322</v>
-      </c>
-      <c r="E34" t="s" s="508">
-        <v>327</v>
-      </c>
-      <c r="F34" t="s" s="508">
-        <v>329</v>
-      </c>
-      <c r="G34" t="s" s="508">
-        <v>333</v>
+      <c r="A34" t="s" s="999">
+        <v>521</v>
+      </c>
+      <c r="B34" t="s" s="999">
+        <v>2293</v>
+      </c>
+      <c r="C34" t="s" s="999">
+        <v>2296</v>
+      </c>
+      <c r="D34" t="s" s="999">
+        <v>2299</v>
+      </c>
+      <c r="E34" t="s" s="999">
+        <v>2302</v>
+      </c>
+      <c r="F34" t="s" s="999">
+        <v>2305</v>
+      </c>
+      <c r="G34" t="s" s="999">
+        <v>2308</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="508">
-        <v>496</v>
-      </c>
-      <c r="B35" t="s" s="508">
-        <v>315</v>
-      </c>
-      <c r="C35" t="s" s="508">
-        <v>319</v>
-      </c>
-      <c r="D35" t="s" s="508">
-        <v>323</v>
-      </c>
-      <c r="E35" t="s" s="508">
-        <v>185</v>
-      </c>
-      <c r="F35" t="s" s="508">
-        <v>185</v>
-      </c>
-      <c r="G35" t="s" s="508">
-        <v>334</v>
+      <c r="A35" t="s" s="999">
+        <v>520</v>
+      </c>
+      <c r="B35" t="s" s="999">
+        <v>2294</v>
+      </c>
+      <c r="C35" t="s" s="999">
+        <v>2297</v>
+      </c>
+      <c r="D35" t="s" s="999">
+        <v>2300</v>
+      </c>
+      <c r="E35" t="s" s="999">
+        <v>2303</v>
+      </c>
+      <c r="F35" t="s" s="999">
+        <v>2306</v>
+      </c>
+      <c r="G35" t="s" s="999">
+        <v>2309</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="508">
-        <v>497</v>
-      </c>
-      <c r="B36" t="s" s="508">
-        <v>313</v>
-      </c>
-      <c r="C36" t="s" s="508">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s" s="508">
-        <v>324</v>
-      </c>
-      <c r="E36" t="s" s="508">
-        <v>185</v>
-      </c>
-      <c r="F36" t="s" s="508">
-        <v>330</v>
-      </c>
-      <c r="G36" t="s" s="508">
-        <v>185</v>
+      <c r="A36" t="s" s="999">
+        <v>519</v>
+      </c>
+      <c r="B36" t="s" s="999">
+        <v>2295</v>
+      </c>
+      <c r="C36" t="s" s="999">
+        <v>2298</v>
+      </c>
+      <c r="D36" t="s" s="999">
+        <v>2301</v>
+      </c>
+      <c r="E36" t="s" s="999">
+        <v>2304</v>
+      </c>
+      <c r="F36" t="s" s="999">
+        <v>2307</v>
+      </c>
+      <c r="G36" t="s" s="999">
+        <v>2310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B37" t="s">
         <v>516</v>
@@ -6628,193 +11923,185 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="509">
-        <v>499</v>
-      </c>
-      <c r="B38" t="s" s="509">
-        <v>335</v>
-      </c>
-      <c r="C38" t="s" s="509">
-        <v>338</v>
-      </c>
-      <c r="D38" t="s" s="509">
-        <v>341</v>
-      </c>
-      <c r="E38" t="s" s="509">
-        <v>185</v>
-      </c>
-      <c r="F38" t="s" s="509">
-        <v>346</v>
-      </c>
-      <c r="G38" t="s" s="509">
-        <v>349</v>
+      <c r="A38" t="s" s="1000">
+        <v>523</v>
+      </c>
+      <c r="B38" t="s" s="1000">
+        <v>2311</v>
+      </c>
+      <c r="C38" t="s" s="1000">
+        <v>2313</v>
+      </c>
+      <c r="D38" t="s" s="1000">
+        <v>2315</v>
+      </c>
+      <c r="E38" t="s" s="1000">
+        <v>2317</v>
+      </c>
+      <c r="F38" t="s" s="1000">
+        <v>2319</v>
+      </c>
+      <c r="G38" t="s" s="1000">
+        <v>2321</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="509">
-        <v>500</v>
-      </c>
-      <c r="B39" t="s" s="509">
-        <v>336</v>
-      </c>
-      <c r="C39" t="s" s="509">
-        <v>339</v>
-      </c>
-      <c r="D39" t="s" s="509">
-        <v>342</v>
-      </c>
-      <c r="E39" t="s" s="509">
-        <v>344</v>
-      </c>
-      <c r="F39" t="s" s="509">
-        <v>347</v>
-      </c>
-      <c r="G39" t="s" s="509">
-        <v>350</v>
+      <c r="A39" t="s" s="1000">
+        <v>524</v>
+      </c>
+      <c r="B39" t="s" s="1000">
+        <v>2312</v>
+      </c>
+      <c r="C39" t="s" s="1000">
+        <v>2314</v>
+      </c>
+      <c r="D39" t="s" s="1000">
+        <v>2316</v>
+      </c>
+      <c r="E39" t="s" s="1000">
+        <v>2318</v>
+      </c>
+      <c r="F39" t="s" s="1000">
+        <v>2320</v>
+      </c>
+      <c r="G39" t="s" s="1000">
+        <v>2322</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="509">
-        <v>501</v>
-      </c>
-      <c r="B40" t="s" s="509">
-        <v>337</v>
-      </c>
-      <c r="C40" t="s" s="509">
-        <v>340</v>
-      </c>
-      <c r="D40" t="s" s="509">
-        <v>343</v>
-      </c>
-      <c r="E40" t="s" s="509">
-        <v>345</v>
-      </c>
-      <c r="F40" t="s" s="509">
-        <v>348</v>
-      </c>
-      <c r="G40" t="s" s="509">
-        <v>351</v>
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" t="s">
+        <v>514</v>
+      </c>
+      <c r="D40" t="s">
+        <v>515</v>
+      </c>
+      <c r="E40" t="s">
+        <v>517</v>
+      </c>
+      <c r="F40" t="s">
+        <v>469</v>
+      </c>
+      <c r="G40" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>502</v>
-      </c>
-      <c r="B41" t="s">
-        <v>516</v>
-      </c>
-      <c r="C41" t="s">
-        <v>514</v>
-      </c>
-      <c r="D41" t="s">
-        <v>515</v>
-      </c>
-      <c r="E41" t="s">
-        <v>517</v>
-      </c>
-      <c r="F41" t="s">
-        <v>469</v>
-      </c>
-      <c r="G41" t="s">
-        <v>513</v>
+        <v>536</v>
+      </c>
+      <c r="B41" t="s" s="1001">
+        <v>2323</v>
+      </c>
+      <c r="C41" t="s" s="1001">
+        <v>2324</v>
+      </c>
+      <c r="D41" t="s" s="1001">
+        <v>2325</v>
+      </c>
+      <c r="E41" t="s" s="1001">
+        <v>2326</v>
+      </c>
+      <c r="F41" t="s" s="1001">
+        <v>2327</v>
+      </c>
+      <c r="G41" t="s" s="1001">
+        <v>2328</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="510">
-        <v>503</v>
-      </c>
-      <c r="B42" t="s" s="510">
-        <v>352</v>
-      </c>
-      <c r="C42" t="s" s="510">
-        <v>356</v>
-      </c>
-      <c r="D42" t="s" s="510">
-        <v>360</v>
-      </c>
-      <c r="E42" t="s" s="510">
-        <v>364</v>
-      </c>
-      <c r="F42" t="s" s="510">
-        <v>367</v>
-      </c>
-      <c r="G42" t="s" s="510">
-        <v>371</v>
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" t="s">
+        <v>514</v>
+      </c>
+      <c r="D42" t="s">
+        <v>515</v>
+      </c>
+      <c r="E42" t="s">
+        <v>517</v>
+      </c>
+      <c r="F42" t="s">
+        <v>469</v>
+      </c>
+      <c r="G42" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="510">
-        <v>504</v>
-      </c>
-      <c r="B43" t="s" s="510">
-        <v>353</v>
-      </c>
-      <c r="C43" t="s" s="510">
-        <v>357</v>
-      </c>
-      <c r="D43" t="s" s="510">
-        <v>361</v>
-      </c>
-      <c r="E43" t="s" s="510">
-        <v>225</v>
-      </c>
-      <c r="F43" t="s" s="510">
-        <v>368</v>
-      </c>
-      <c r="G43" t="s" s="510">
-        <v>372</v>
+      <c r="A43" t="s">
+        <v>537</v>
+      </c>
+      <c r="B43" t="s" s="1002">
+        <v>2329</v>
+      </c>
+      <c r="C43" t="s" s="1002">
+        <v>2330</v>
+      </c>
+      <c r="D43" t="s" s="1002">
+        <v>2331</v>
+      </c>
+      <c r="E43" t="s" s="1002">
+        <v>2332</v>
+      </c>
+      <c r="F43" t="s" s="1002">
+        <v>2333</v>
+      </c>
+      <c r="G43" t="s" s="1002">
+        <v>2334</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="510">
-        <v>505</v>
-      </c>
-      <c r="B44" t="s" s="510">
-        <v>354</v>
-      </c>
-      <c r="C44" t="s" s="510">
-        <v>358</v>
-      </c>
-      <c r="D44" t="s" s="510">
-        <v>362</v>
-      </c>
-      <c r="E44" t="s" s="510">
-        <v>365</v>
-      </c>
-      <c r="F44" t="s" s="510">
-        <v>369</v>
-      </c>
-      <c r="G44" t="s" s="510">
-        <v>373</v>
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>516</v>
+      </c>
+      <c r="C44" t="s">
+        <v>514</v>
+      </c>
+      <c r="D44" t="s">
+        <v>515</v>
+      </c>
+      <c r="E44" t="s">
+        <v>517</v>
+      </c>
+      <c r="F44" t="s">
+        <v>469</v>
+      </c>
+      <c r="G44" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="510">
-        <v>506</v>
-      </c>
-      <c r="B45" t="s" s="510">
-        <v>355</v>
-      </c>
-      <c r="C45" t="s" s="510">
-        <v>359</v>
-      </c>
-      <c r="D45" t="s" s="510">
-        <v>363</v>
-      </c>
-      <c r="E45" t="s" s="510">
-        <v>366</v>
-      </c>
-      <c r="F45" t="s" s="510">
-        <v>370</v>
-      </c>
-      <c r="G45" t="s" s="510">
-        <v>374</v>
+      <c r="A45" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" t="s" s="1003">
+        <v>2335</v>
+      </c>
+      <c r="C45" t="s" s="1003">
+        <v>2336</v>
+      </c>
+      <c r="D45" t="s" s="1003">
+        <v>2337</v>
+      </c>
+      <c r="E45" t="s" s="1003">
+        <v>2338</v>
+      </c>
+      <c r="F45" t="s" s="1003">
+        <v>2339</v>
+      </c>
+      <c r="G45" t="s" s="1003">
+        <v>2340</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>507</v>
-      </c>
+      <c r="A46"/>
       <c r="B46" t="s">
         <v>516</v>
       </c>
@@ -6835,614 +12122,70 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="511">
-        <v>508</v>
-      </c>
-      <c r="B47" t="s" s="511">
-        <v>375</v>
-      </c>
-      <c r="C47" t="s" s="511">
-        <v>379</v>
-      </c>
-      <c r="D47" t="s" s="511">
-        <v>382</v>
-      </c>
-      <c r="E47" t="s" s="511">
-        <v>385</v>
-      </c>
-      <c r="F47" t="s" s="511">
-        <v>388</v>
-      </c>
-      <c r="G47" t="s" s="511">
-        <v>391</v>
+      <c r="A47" t="s">
+        <v>541</v>
+      </c>
+      <c r="B47" t="s" s="1004">
+        <v>2341</v>
+      </c>
+      <c r="C47" t="s" s="1004">
+        <v>2342</v>
+      </c>
+      <c r="D47" t="s" s="1004">
+        <v>2343</v>
+      </c>
+      <c r="E47" t="s" s="1004">
+        <v>2344</v>
+      </c>
+      <c r="F47" t="s" s="1004">
+        <v>2345</v>
+      </c>
+      <c r="G47" t="s" s="1004">
+        <v>2346</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="511">
-        <v>509</v>
-      </c>
-      <c r="B48" t="s" s="511">
-        <v>376</v>
-      </c>
-      <c r="C48" t="s" s="511">
-        <v>380</v>
-      </c>
-      <c r="D48" t="s" s="511">
-        <v>383</v>
-      </c>
-      <c r="E48" t="s" s="511">
-        <v>386</v>
-      </c>
-      <c r="F48" t="s" s="511">
-        <v>389</v>
-      </c>
-      <c r="G48" t="s" s="511">
-        <v>392</v>
+      <c r="A48"/>
+      <c r="B48" t="s">
+        <v>516</v>
+      </c>
+      <c r="C48" t="s">
+        <v>514</v>
+      </c>
+      <c r="D48" t="s">
+        <v>515</v>
+      </c>
+      <c r="E48" t="s">
+        <v>517</v>
+      </c>
+      <c r="F48" t="s">
+        <v>469</v>
+      </c>
+      <c r="G48" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="511">
-        <v>510</v>
-      </c>
-      <c r="B49" t="s" s="511">
-        <v>377</v>
-      </c>
-      <c r="C49" t="s" s="511">
-        <v>191</v>
-      </c>
-      <c r="D49" t="s" s="511">
-        <v>191</v>
-      </c>
-      <c r="E49" t="s" s="511">
-        <v>185</v>
-      </c>
-      <c r="F49" t="s" s="511">
-        <v>185</v>
-      </c>
-      <c r="G49" t="s" s="511">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="511">
-        <v>511</v>
-      </c>
-      <c r="B50" t="s" s="511">
-        <v>378</v>
-      </c>
-      <c r="C50" t="s" s="511">
-        <v>381</v>
-      </c>
-      <c r="D50" t="s" s="511">
-        <v>384</v>
-      </c>
-      <c r="E50" t="s" s="511">
-        <v>387</v>
-      </c>
-      <c r="F50" t="s" s="511">
-        <v>390</v>
-      </c>
-      <c r="G50" t="s" s="511">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>518</v>
-      </c>
-      <c r="B51" t="s">
-        <v>516</v>
-      </c>
-      <c r="C51" t="s">
-        <v>514</v>
-      </c>
-      <c r="D51" t="s">
-        <v>515</v>
-      </c>
-      <c r="E51" t="s">
-        <v>517</v>
-      </c>
-      <c r="F51" t="s">
-        <v>469</v>
-      </c>
-      <c r="G51" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="512">
-        <v>521</v>
-      </c>
-      <c r="B52" t="s" s="512">
-        <v>394</v>
-      </c>
-      <c r="C52" t="s" s="512">
-        <v>397</v>
-      </c>
-      <c r="D52" t="s" s="512">
-        <v>400</v>
-      </c>
-      <c r="E52" t="s" s="512">
-        <v>403</v>
-      </c>
-      <c r="F52" t="s" s="512">
-        <v>406</v>
-      </c>
-      <c r="G52" t="s" s="512">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="512">
-        <v>520</v>
-      </c>
-      <c r="B53" t="s" s="512">
-        <v>396</v>
-      </c>
-      <c r="C53" t="s" s="512">
-        <v>399</v>
-      </c>
-      <c r="D53" t="s" s="512">
-        <v>402</v>
-      </c>
-      <c r="E53" t="s" s="512">
-        <v>405</v>
-      </c>
-      <c r="F53" t="s" s="512">
-        <v>408</v>
-      </c>
-      <c r="G53" t="s" s="512">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="512">
-        <v>519</v>
-      </c>
-      <c r="B54" t="s" s="512">
-        <v>395</v>
-      </c>
-      <c r="C54" t="s" s="512">
-        <v>398</v>
-      </c>
-      <c r="D54" t="s" s="512">
-        <v>401</v>
-      </c>
-      <c r="E54" t="s" s="512">
-        <v>404</v>
-      </c>
-      <c r="F54" t="s" s="512">
-        <v>407</v>
-      </c>
-      <c r="G54" t="s" s="512">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>522</v>
-      </c>
-      <c r="B55" t="s">
-        <v>516</v>
-      </c>
-      <c r="C55" t="s">
-        <v>514</v>
-      </c>
-      <c r="D55" t="s">
-        <v>515</v>
-      </c>
-      <c r="E55" t="s">
-        <v>517</v>
-      </c>
-      <c r="F55" t="s">
-        <v>469</v>
-      </c>
-      <c r="G55" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="513">
-        <v>523</v>
-      </c>
-      <c r="B56" t="s" s="513">
-        <v>544</v>
-      </c>
-      <c r="C56" t="s" s="513">
-        <v>545</v>
-      </c>
-      <c r="D56" t="s" s="513">
-        <v>546</v>
-      </c>
-      <c r="E56" t="s" s="513">
-        <v>547</v>
-      </c>
-      <c r="F56" t="s" s="513">
-        <v>548</v>
-      </c>
-      <c r="G56" t="s" s="513">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="513">
-        <v>524</v>
-      </c>
-      <c r="B57" t="s" s="513">
-        <v>412</v>
-      </c>
-      <c r="C57" t="s" s="513">
-        <v>413</v>
-      </c>
-      <c r="D57" t="s" s="513">
-        <v>414</v>
-      </c>
-      <c r="E57" t="s" s="513">
-        <v>415</v>
-      </c>
-      <c r="F57" t="s" s="513">
-        <v>416</v>
-      </c>
-      <c r="G57" t="s" s="513">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>528</v>
-      </c>
-      <c r="B58" t="s">
-        <v>516</v>
-      </c>
-      <c r="C58" t="s">
-        <v>514</v>
-      </c>
-      <c r="D58" t="s">
-        <v>515</v>
-      </c>
-      <c r="E58" t="s">
-        <v>517</v>
-      </c>
-      <c r="F58" t="s">
-        <v>469</v>
-      </c>
-      <c r="G58" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="514">
-        <v>523</v>
-      </c>
-      <c r="B59" t="s" s="514">
-        <v>550</v>
-      </c>
-      <c r="C59" t="s" s="514">
-        <v>551</v>
-      </c>
-      <c r="D59" t="s" s="514">
-        <v>552</v>
-      </c>
-      <c r="E59" t="s" s="514">
-        <v>553</v>
-      </c>
-      <c r="F59" t="s" s="514">
-        <v>554</v>
-      </c>
-      <c r="G59" t="s" s="514">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="514">
-        <v>524</v>
-      </c>
-      <c r="B60" t="s" s="514">
-        <v>418</v>
-      </c>
-      <c r="C60" t="s" s="514">
-        <v>419</v>
-      </c>
-      <c r="D60" t="s" s="514">
-        <v>420</v>
-      </c>
-      <c r="E60" t="s" s="514">
-        <v>185</v>
-      </c>
-      <c r="F60" t="s" s="514">
-        <v>185</v>
-      </c>
-      <c r="G60" t="s" s="514">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>531</v>
-      </c>
-      <c r="B61" t="s">
-        <v>516</v>
-      </c>
-      <c r="C61" t="s">
-        <v>514</v>
-      </c>
-      <c r="D61" t="s">
-        <v>515</v>
-      </c>
-      <c r="E61" t="s">
-        <v>517</v>
-      </c>
-      <c r="F61" t="s">
-        <v>469</v>
-      </c>
-      <c r="G61" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="515">
-        <v>523</v>
-      </c>
-      <c r="B62" t="s" s="515">
-        <v>556</v>
-      </c>
-      <c r="C62" t="s" s="515">
-        <v>558</v>
-      </c>
-      <c r="D62" t="s" s="515">
-        <v>560</v>
-      </c>
-      <c r="E62" t="s" s="515">
-        <v>562</v>
-      </c>
-      <c r="F62" t="s" s="515">
-        <v>563</v>
-      </c>
-      <c r="G62" t="s" s="515">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="515">
-        <v>524</v>
-      </c>
-      <c r="B63" t="s" s="515">
-        <v>557</v>
-      </c>
-      <c r="C63" t="s" s="515">
-        <v>559</v>
-      </c>
-      <c r="D63" t="s" s="515">
-        <v>561</v>
-      </c>
-      <c r="E63" t="s" s="515">
-        <v>256</v>
-      </c>
-      <c r="F63" t="s" s="515">
-        <v>564</v>
-      </c>
-      <c r="G63" t="s" s="515">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64"/>
-      <c r="B64" t="s">
-        <v>516</v>
-      </c>
-      <c r="C64" t="s">
-        <v>514</v>
-      </c>
-      <c r="D64" t="s">
-        <v>515</v>
-      </c>
-      <c r="E64" t="s">
-        <v>517</v>
-      </c>
-      <c r="F64" t="s">
-        <v>469</v>
-      </c>
-      <c r="G64" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>536</v>
-      </c>
-      <c r="B65" t="s" s="516">
-        <v>447</v>
-      </c>
-      <c r="C65" t="s" s="516">
-        <v>448</v>
-      </c>
-      <c r="D65" t="s" s="516">
-        <v>449</v>
-      </c>
-      <c r="E65" t="s" s="516">
-        <v>450</v>
-      </c>
-      <c r="F65" t="s" s="516">
-        <v>451</v>
-      </c>
-      <c r="G65" t="s" s="516">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66"/>
-      <c r="B66" t="s">
-        <v>516</v>
-      </c>
-      <c r="C66" t="s">
-        <v>514</v>
-      </c>
-      <c r="D66" t="s">
-        <v>515</v>
-      </c>
-      <c r="E66" t="s">
-        <v>517</v>
-      </c>
-      <c r="F66" t="s">
-        <v>469</v>
-      </c>
-      <c r="G66" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>537</v>
-      </c>
-      <c r="B67" t="s" s="517">
-        <v>567</v>
-      </c>
-      <c r="C67" t="s" s="517">
-        <v>568</v>
-      </c>
-      <c r="D67" t="s" s="517">
-        <v>569</v>
-      </c>
-      <c r="E67" t="s" s="517">
-        <v>570</v>
-      </c>
-      <c r="F67" t="s" s="517">
-        <v>571</v>
-      </c>
-      <c r="G67" t="s" s="517">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68"/>
-      <c r="B68" t="s">
-        <v>516</v>
-      </c>
-      <c r="C68" t="s">
-        <v>514</v>
-      </c>
-      <c r="D68" t="s">
-        <v>515</v>
-      </c>
-      <c r="E68" t="s">
-        <v>517</v>
-      </c>
-      <c r="F68" t="s">
-        <v>469</v>
-      </c>
-      <c r="G68" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>538</v>
-      </c>
-      <c r="B69" t="s" s="518">
-        <v>573</v>
-      </c>
-      <c r="C69" t="s" s="518">
-        <v>574</v>
-      </c>
-      <c r="D69" t="s" s="518">
-        <v>575</v>
-      </c>
-      <c r="E69" t="s" s="518">
-        <v>576</v>
-      </c>
-      <c r="F69" t="s" s="518">
-        <v>577</v>
-      </c>
-      <c r="G69" t="s" s="518">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70"/>
-      <c r="B70" t="s">
-        <v>516</v>
-      </c>
-      <c r="C70" t="s">
-        <v>514</v>
-      </c>
-      <c r="D70" t="s">
-        <v>515</v>
-      </c>
-      <c r="E70" t="s">
-        <v>517</v>
-      </c>
-      <c r="F70" t="s">
-        <v>469</v>
-      </c>
-      <c r="G70" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>541</v>
-      </c>
-      <c r="B71" t="s" s="519">
-        <v>579</v>
-      </c>
-      <c r="C71" t="s" s="519">
-        <v>580</v>
-      </c>
-      <c r="D71" t="s" s="519">
-        <v>581</v>
-      </c>
-      <c r="E71" t="s" s="519">
-        <v>582</v>
-      </c>
-      <c r="F71" t="s" s="519">
-        <v>583</v>
-      </c>
-      <c r="G71" t="s" s="519">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72"/>
-      <c r="B72" t="s">
-        <v>516</v>
-      </c>
-      <c r="C72" t="s">
-        <v>514</v>
-      </c>
-      <c r="D72" t="s">
-        <v>515</v>
-      </c>
-      <c r="E72" t="s">
-        <v>517</v>
-      </c>
-      <c r="F72" t="s">
-        <v>469</v>
-      </c>
-      <c r="G72" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
+      <c r="A49" t="s">
         <v>702</v>
       </c>
-      <c r="B73" t="s" s="520">
-        <v>979</v>
-      </c>
-      <c r="C73" t="s" s="520">
-        <v>980</v>
-      </c>
-      <c r="D73" t="s" s="520">
-        <v>981</v>
-      </c>
-      <c r="E73" t="s" s="520">
-        <v>982</v>
-      </c>
-      <c r="F73" t="s" s="520">
-        <v>983</v>
-      </c>
-      <c r="G73" t="s" s="520">
-        <v>984</v>
+      <c r="B49" t="s" s="1005">
+        <v>2347</v>
+      </c>
+      <c r="C49" t="s" s="1005">
+        <v>2348</v>
+      </c>
+      <c r="D49" t="s" s="1005">
+        <v>2349</v>
+      </c>
+      <c r="E49" t="s" s="1005">
+        <v>2350</v>
+      </c>
+      <c r="F49" t="s" s="1005">
+        <v>2351</v>
+      </c>
+      <c r="G49" t="s" s="1005">
+        <v>2352</v>
       </c>
     </row>
   </sheetData>
